--- a/data/hotels_by_city/Denver/Denver_shard_173.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_173.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="690">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d11894133-Reviews-Kimpton_Hotel_Born-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Kimpton-Hotel-Born.h17332103.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2008 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r601782742-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>11894133</t>
+  </si>
+  <si>
+    <t>601782742</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel in the heart of Downtown</t>
+  </si>
+  <si>
+    <t>You have to LOVE a new hotel! High end décor, but rustic as well. No worries about charging your devices, plenty of ports. Mini jambox, to listen to your own music. An actual mini bar!, sure it on the expensive side, but sometimes you need M&amp;M's in the middle of the night, right :)  Location is awesome , steps away from Union Station &amp; tons of restaurants. Also walking distance to Coors Field</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r601610468-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>601610468</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Love!</t>
+  </si>
+  <si>
+    <t>I absolutely love staying at this hotel for my visits to Denver.  You can't beat the location and the staff have always been friendly and accommodating.  I'm an IHG member and appreciate the recognition that I receive.  The two restaurants associated with the hotel are also fabulous!</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r599086223-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>599086223</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Lacked Customer Service Skills/Minimal Restaurant Menu</t>
+  </si>
+  <si>
+    <t>I was very disappointed at the extremely limited menu in the restaurant and the service provided by the servers. When I expressed my thoughts and made a request,  instead of trying to accommodate me, the server had an attitude and took it out on me. It would service them well to train their staff on customer interaction and service. I found the hotel staff to be very accommodating and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded 4 days ago</t>
+  </si>
+  <si>
+    <t>Responded 4 days ago</t>
+  </si>
+  <si>
+    <t>I was very disappointed at the extremely limited menu in the restaurant and the service provided by the servers. When I expressed my thoughts and made a request,  instead of trying to accommodate me, the server had an attitude and took it out on me. It would service them well to train their staff on customer interaction and service. I found the hotel staff to be very accommodating and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r598262031-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>598262031</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Came for business, stayed for a few extra days of fun </t>
+  </si>
+  <si>
+    <t>Superb location! It’s a 1 minute walk to Union Station. Go to the Farmers Market for breakfast on Sunday and take the free mall bus to the other end of the city. Great location for walk ability, restaurants, and more. Hotel is new, modern, and trendy. Very good restaurant in the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Superb location! It’s a 1 minute walk to Union Station. Go to the Farmers Market for breakfast on Sunday and take the free mall bus to the other end of the city. Great location for walk ability, restaurants, and more. Hotel is new, modern, and trendy. Very good restaurant in the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r598107649-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>598107649</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Loved the location. Very close to Union Station where we would go every night for Ice Cream as well as took the train to and from the hotel.Whole Foods literally a 2-3 min walk where we would buy snacks and breakfast burritos for the kids.The rooms were a little small and the master lighting switch took some time to understand but the shower made up for it. Loved the shower.One real drawback and we knew going into there is no pool and also surprised for being a downtown hotel they don’t have a business center.Love the Kimpton Hotels but next time I will research more about the business centers in the hotel as the rooms were a little small to conduct any type of business with 4 family members.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Loved the location. Very close to Union Station where we would go every night for Ice Cream as well as took the train to and from the hotel.Whole Foods literally a 2-3 min walk where we would buy snacks and breakfast burritos for the kids.The rooms were a little small and the master lighting switch took some time to understand but the shower made up for it. Loved the shower.One real drawback and we knew going into there is no pool and also surprised for being a downtown hotel they don’t have a business center.Love the Kimpton Hotels but next time I will research more about the business centers in the hotel as the rooms were a little small to conduct any type of business with 4 family members.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r597773305-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>597773305</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Friend getaway</t>
+  </si>
+  <si>
+    <t>I met my best friend for her birthday and she was certainly celebrated here!  The room was clean and quiet with a wonderful bed and shower. The staff were genuinely helpful, providing needed information, complimentary items as well as overall kindness.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I met my best friend for her birthday and she was certainly celebrated here!  The room was clean and quiet with a wonderful bed and shower. The staff were genuinely helpful, providing needed information, complimentary items as well as overall kindness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r597002139-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>597002139</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Denver Trip: Eagles Concert</t>
+  </si>
+  <si>
+    <t>We stayed at the Born Hotel which offered excellent customer service. The Hotel is located in a great location close to the train and in the heart of downtown. We were able to walk to the concert, restaurants and shopping. The Hotel has a wonderful happy hour each day and a very good restaurant. I highly recommend the Hotel Born for a great hotel experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>We stayed at the Born Hotel which offered excellent customer service. The Hotel is located in a great location close to the train and in the heart of downtown. We were able to walk to the concert, restaurants and shopping. The Hotel has a wonderful happy hour each day and a very good restaurant. I highly recommend the Hotel Born for a great hotel experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r596510505-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>596510505</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Very Comfortable and great location</t>
+  </si>
+  <si>
+    <t>Its another great Kimpton experience,  our room was very comfortable, and its great to walk right over from the train.  Staff was especially good and the Citizen Rail restaurant was above average,  great place to have right there.    Was a bit surprised to find that there is not a concierge on staff,  miss that from some other Kimptons.   And maybe seemed a bit expensive,   there's a $ 20 per day extra fee for no good reason.   Could really use a rooftop pool.   And maybe the best part is that it's right next door to Tavernetta,  maybe the best restaurant in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>Its another great Kimpton experience,  our room was very comfortable, and its great to walk right over from the train.  Staff was especially good and the Citizen Rail restaurant was above average,  great place to have right there.    Was a bit surprised to find that there is not a concierge on staff,  miss that from some other Kimptons.   And maybe seemed a bit expensive,   there's a $ 20 per day extra fee for no good reason.   Could really use a rooftop pool.   And maybe the best part is that it's right next door to Tavernetta,  maybe the best restaurant in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r595828721-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>595828721</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved it and can’t wait to return </t>
+  </si>
+  <si>
+    <t>I had a conference to attend and I never stay at the convention hotels. This location was PERFECT. The staff was amazing. The decor was simple and beautiful. Loved everything about it. Very unique. Not sure the happy hour is their best draw - maybe they should just do something in conjunction with the awesome restaurant instead. Just a thought. Cool Tesla too!! MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a conference to attend and I never stay at the convention hotels. This location was PERFECT. The staff was amazing. The decor was simple and beautiful. Loved everything about it. Very unique. Not sure the happy hour is their best draw - maybe they should just do something in conjunction with the awesome restaurant instead. Just a thought. Cool Tesla too!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r593280719-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>593280719</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Eagles concert</t>
+  </si>
+  <si>
+    <t>Visited Denver to attend an Eagles concert. So, i looked for a hotel near Coors Field. Had never stayed at a Kimpton hotel and decided to try it. Unbelievable hotel. The staff was excellent and made us feel right at home. The wine/beer happy hour was topping on the cake. Will definitely stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Visited Denver to attend an Eagles concert. So, i looked for a hotel near Coors Field. Had never stayed at a Kimpton hotel and decided to try it. Unbelievable hotel. The staff was excellent and made us feel right at home. The wine/beer happy hour was topping on the cake. Will definitely stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r592807577-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>592807577</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Great Stay.  Convenient Location.</t>
+  </si>
+  <si>
+    <t>We had a one night layover in Denver and decided to take the train into Union Station to check out the downtown area.  We selected the Kimpton Hotel Born primarily because of the convenient location, but also because we have been wanting to try the Kimpton brand ever since it became a part of IHG.  We were not disappointed.  Very nice boutique hotel with woody Alpine decor.  Large room with separate soaking tub.  Full length windows.  Interesting art throughout the hotel.  Evening wine and beer reception.  This is a really great place to stay and we are a little sorry we didn't have more time in Denver to experience it.  Hope to get another chance soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>We had a one night layover in Denver and decided to take the train into Union Station to check out the downtown area.  We selected the Kimpton Hotel Born primarily because of the convenient location, but also because we have been wanting to try the Kimpton brand ever since it became a part of IHG.  We were not disappointed.  Very nice boutique hotel with woody Alpine decor.  Large room with separate soaking tub.  Full length windows.  Interesting art throughout the hotel.  Evening wine and beer reception.  This is a really great place to stay and we are a little sorry we didn't have more time in Denver to experience it.  Hope to get another chance soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r591936445-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>591936445</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>My fav hotel in Denver!</t>
+  </si>
+  <si>
+    <t>GREAT LOCATION!  It's right next to the Union Station, where you can take the train from Denver airport directly to the hotel!  If you drive, there's valet parking and plenty of free street parkings nearby.Hotel has a Tesla to take you around town, very convenient, don't forget to tip!The lobby has the signature Kimpton smell, sooo nice and relaxing.  Super friendly front desk staff, greeted my dog as well.Had a suite facing the train station, pretty quiet on the weekend.  It's nice and bright!  Love the design of the room and all the furniture.  Everything is nice and new, unlike the other Kimpton in town.  Love the huge bathroom, bright and clean!Hotel has happy hour in the afternoon with wine and beer and a light snack.The hotel restaurant has a great happy hour!  The food was sooooooo good, and well priced!  Personally, the food here is better than the Four Seasons.MoreShow less</t>
+  </si>
+  <si>
+    <t>GREAT LOCATION!  It's right next to the Union Station, where you can take the train from Denver airport directly to the hotel!  If you drive, there's valet parking and plenty of free street parkings nearby.Hotel has a Tesla to take you around town, very convenient, don't forget to tip!The lobby has the signature Kimpton smell, sooo nice and relaxing.  Super friendly front desk staff, greeted my dog as well.Had a suite facing the train station, pretty quiet on the weekend.  It's nice and bright!  Love the design of the room and all the furniture.  Everything is nice and new, unlike the other Kimpton in town.  Love the huge bathroom, bright and clean!Hotel has happy hour in the afternoon with wine and beer and a light snack.The hotel restaurant has a great happy hour!  The food was sooooooo good, and well priced!  Personally, the food here is better than the Four Seasons.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r590941314-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>590941314</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Stayed for a mixed business/leisure trip. All staff very efficient, pleasant and helpful. Room was comfortable and nicely decorated. I was able to borrow a bike for a trip to the Botanic Garden - front desk very helpful with directions. Good wines and beer for the happy hour. Room was quiet even though we were overlooking Union Station. Rode the train from the airport to Union station and walked about 300 yds to the hotel. Close to many restaurants. Would stay again and would highly recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for a mixed business/leisure trip. All staff very efficient, pleasant and helpful. Room was comfortable and nicely decorated. I was able to borrow a bike for a trip to the Botanic Garden - front desk very helpful with directions. Good wines and beer for the happy hour. Room was quiet even though we were overlooking Union Station. Rode the train from the airport to Union station and walked about 300 yds to the hotel. Close to many restaurants. Would stay again and would highly recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r589014371-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>589014371</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>We love the Born!</t>
+  </si>
+  <si>
+    <t>An excellent hotel with excellent staff. The location is perfect in the downtown area but doesn't feel  overly crowded  as other area hotels. Its relaxing atmosphere and friendly staff make it easy to enjoy time away from everyday life.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2018</t>
+  </si>
+  <si>
+    <t>An excellent hotel with excellent staff. The location is perfect in the downtown area but doesn't feel  overly crowded  as other area hotels. Its relaxing atmosphere and friendly staff make it easy to enjoy time away from everyday life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r588415463-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>588415463</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Perfect location!</t>
+  </si>
+  <si>
+    <t>I found this hotel to be very well-appointed, with friendly and helpful staff. The location is perfect! It is next to the Union Station, and surrounded by restaurants, and a very nice vibe! I love it!MoreShow less</t>
+  </si>
+  <si>
+    <t>I found this hotel to be very well-appointed, with friendly and helpful staff. The location is perfect! It is next to the Union Station, and surrounded by restaurants, and a very nice vibe! I love it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r586835144-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>586835144</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Great Work Trip</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights for a recent work trip. The hotel is gorgeous and has a bit of old style charm to it. The rooms are spacious and well maintained.There are many restaurants and bars within close walking distance. I would recommend this hotel more for business travel than family travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights for a recent work trip. The hotel is gorgeous and has a bit of old style charm to it. The rooms are spacious and well maintained.There are many restaurants and bars within close walking distance. I would recommend this hotel more for business travel than family travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r586820533-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>586820533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casual elegance, fantastic in every way. </t>
+  </si>
+  <si>
+    <t>Stayed here this past weekend on a getaway to celebrate our anniversary and catch some baseball games at Coors Field. Could not ask for a better stay!  Beautiful, comfortable, great location and fantastic staff. Walk off the train and only steps to the hotel. Just a few blocks from the stadium. Excellent restaurants and bars all around. Borrowed the free bikes for a short ride to several awesome breweries. Had a lovely view of union station and a bit of the ballpark from the 11th floor.  Couldnt believe how quiet it was with trains coming and going every 15 minutes.  Comfortable bed, lovely simple modern lodge decor, great shower with amazing full size shampoo, conditioner and body wash.  Don’t think I’d change a thing! Definitely recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here this past weekend on a getaway to celebrate our anniversary and catch some baseball games at Coors Field. Could not ask for a better stay!  Beautiful, comfortable, great location and fantastic staff. Walk off the train and only steps to the hotel. Just a few blocks from the stadium. Excellent restaurants and bars all around. Borrowed the free bikes for a short ride to several awesome breweries. Had a lovely view of union station and a bit of the ballpark from the 11th floor.  Couldnt believe how quiet it was with trains coming and going every 15 minutes.  Comfortable bed, lovely simple modern lodge decor, great shower with amazing full size shampoo, conditioner and body wash.  Don’t think I’d change a thing! Definitely recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r586304220-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>586304220</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Great Local Stay</t>
+  </si>
+  <si>
+    <t>Fabulous location in the best part of Denver.  From the windows you can see Union Station.  A $9 train door to door to the Denver Airport.  Happy hour at Tavernetta is a steal.  Only complaints we had were a couple of amenities listed on the Kimpton website are not offered by this property or front desk.  We were told there were no PUBLIC bikes offered.   When you visit Kimpton Born Hotel, “the customized bikes will be front and center, one of the first brand expressions you’ll see when you get to the hotel. Guests will be able to use them to go out and explore the neighborhood.”Secondly, the website states Use of our Tesla Town car within 5 miles.  When we asked for a ride to Cherry Creek Mall, we were told that the Mall is outside of the 2 mile radius they now use.All in all not a major deal, maybe just a need for someone to review the website.MoreShow less</t>
+  </si>
+  <si>
+    <t>Fabulous location in the best part of Denver.  From the windows you can see Union Station.  A $9 train door to door to the Denver Airport.  Happy hour at Tavernetta is a steal.  Only complaints we had were a couple of amenities listed on the Kimpton website are not offered by this property or front desk.  We were told there were no PUBLIC bikes offered.   When you visit Kimpton Born Hotel, “the customized bikes will be front and center, one of the first brand expressions you’ll see when you get to the hotel. Guests will be able to use them to go out and explore the neighborhood.”Secondly, the website states Use of our Tesla Town car within 5 miles.  When we asked for a ride to Cherry Creek Mall, we were told that the Mall is outside of the 2 mile radius they now use.All in all not a major deal, maybe just a need for someone to review the website.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r585323182-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>585323182</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>I have always stayed at the Kimpton Monaco in Denver but I had to try the new Born out.  I was not disappointed.  The staff were very accommodating to my group and the rooms were decorated very nicely.  The lobby was warm and welcoming and there was a whole foods right across the street!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded June 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2018</t>
+  </si>
+  <si>
+    <t>I have always stayed at the Kimpton Monaco in Denver but I had to try the new Born out.  I was not disappointed.  The staff were very accommodating to my group and the rooms were decorated very nicely.  The lobby was warm and welcoming and there was a whole foods right across the street!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r585321257-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>585321257</t>
+  </si>
+  <si>
+    <t>Wodnerful Stay</t>
+  </si>
+  <si>
+    <t>The Hotel Born was a beautiful, well furnished hotel in the heart of the entertainment of Denver. We loved the friendliness of that staff, the great location, the wonderful room, and that bathroom was just beautiful! We loved how the rooms had a "cabin" feel, while also getting the great amenities we were looking for. Each and every staff member were great and we were treated well the whole stay. We will look at booking this property on our next trip to Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Hotel Born was a beautiful, well furnished hotel in the heart of the entertainment of Denver. We loved the friendliness of that staff, the great location, the wonderful room, and that bathroom was just beautiful! We loved how the rooms had a "cabin" feel, while also getting the great amenities we were looking for. Each and every staff member were great and we were treated well the whole stay. We will look at booking this property on our next trip to Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r584578131-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>584578131</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Awesome hotel in a great location!</t>
+  </si>
+  <si>
+    <t>Stayed at the Born for a conference with my wife. Loved that we could take the train from the airport and walk 1/2 a block to the hotel. Great places to eat nearby and lots of downtown architecture to look at. The hotel itself was very unique and had great towels, linens, and bathroom toiletries. They ware very eco friendly and sponsor local vendors as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Stayed at the Born for a conference with my wife. Loved that we could take the train from the airport and walk 1/2 a block to the hotel. Great places to eat nearby and lots of downtown architecture to look at. The hotel itself was very unique and had great towels, linens, and bathroom toiletries. They ware very eco friendly and sponsor local vendors as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r584154988-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>584154988</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel in a great location.</t>
+  </si>
+  <si>
+    <t>We had an awesome room - 6th floor overlooking Union Station. Very convenient to the Rockies game, 16th street mall etc... The soaking tub was great. The staff was very friendly and helpful. We had a large room with a bedroom, walk in closet, living room and very comfy bed. The decor is very unique but really pretty. Only valet parking available for $50 a day but that is to be expected in a downtown hotel. We really enjoyed our stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded June 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2018</t>
+  </si>
+  <si>
+    <t>We had an awesome room - 6th floor overlooking Union Station. Very convenient to the Rockies game, 16th street mall etc... The soaking tub was great. The staff was very friendly and helpful. We had a large room with a bedroom, walk in closet, living room and very comfy bed. The decor is very unique but really pretty. Only valet parking available for $50 a day but that is to be expected in a downtown hotel. We really enjoyed our stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r583940508-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583940508</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>So handsome and so unique</t>
+  </si>
+  <si>
+    <t>We loved the hotel!!! it is beautiful, so warm and so modern, such a pleasure to be in the room, in the lobby, in the atmosphere! The location is perfect, easy to walk to the main restaurants and in a very safe area. Because of a delayed Frontier flight we ended up having to walk to the hotel at 2 in the morning.It was totally safe, we were welcomed by the staff and felt very comfortable. The room was spacious, the wood so warm and cosy, the amenities just right and the bed so comfortable I did not want to get up. And best of all, the hotel takes dogs!! it was the best!!!!The only issue is the parking at $50 a night, it is easier to find an alternative. We will come back for sure!MoreShow less</t>
+  </si>
+  <si>
+    <t>We loved the hotel!!! it is beautiful, so warm and so modern, such a pleasure to be in the room, in the lobby, in the atmosphere! The location is perfect, easy to walk to the main restaurants and in a very safe area. Because of a delayed Frontier flight we ended up having to walk to the hotel at 2 in the morning.It was totally safe, we were welcomed by the staff and felt very comfortable. The room was spacious, the wood so warm and cosy, the amenities just right and the bed so comfortable I did not want to get up. And best of all, the hotel takes dogs!! it was the best!!!!The only issue is the parking at $50 a night, it is easier to find an alternative. We will come back for sure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r583924707-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583924707</t>
+  </si>
+  <si>
+    <t>Not the best Kimpton</t>
+  </si>
+  <si>
+    <t>Maybe I’m being a bit harsh but after staying in some kimptons this is not the bestRooms were nice and the build of Hotel and interior was fabJust small things weren’t right like the breakfast area was dark and dull and not a good menuThere bikes were stolen a few weeks ago so why should we have to pay to hireGood position at the station MoreShow less</t>
+  </si>
+  <si>
+    <t>Maybe I’m being a bit harsh but after staying in some kimptons this is not the bestRooms were nice and the build of Hotel and interior was fabJust small things weren’t right like the breakfast area was dark and dull and not a good menuThere bikes were stolen a few weeks ago so why should we have to pay to hireGood position at the station More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r583493589-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583493589</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful hotel with typical Kimpton outstanding customer service. </t>
+  </si>
+  <si>
+    <t>The Hotel Born is one of the most beautiful hotels I’ve seen or stayed in. It has Kimpton’s trademark unique style that makes it feel one with the city it’s in. The architect’s and designers’ mixture of concrete, woods, and metals is absolutely stunning. It’s like a giant urban cabin in the middle of downtown Denver. It’s easily one of my favorite Kimptons of all the ones I’ve visited. The rooms are incredibly well decorated and furnished with a wonderful cozy feel. The views are stunning as well. Both of my stays at this hotel have had tremendous views from different parts of the building. To top it all off, the staff are incredibly helpful and friendly and the customer service is amazing, but that’s no surprise as that’s basically the second trademark that separates Kimpton hotels from the rest of the hotels out there. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>The Hotel Born is one of the most beautiful hotels I’ve seen or stayed in. It has Kimpton’s trademark unique style that makes it feel one with the city it’s in. The architect’s and designers’ mixture of concrete, woods, and metals is absolutely stunning. It’s like a giant urban cabin in the middle of downtown Denver. It’s easily one of my favorite Kimptons of all the ones I’ve visited. The rooms are incredibly well decorated and furnished with a wonderful cozy feel. The views are stunning as well. Both of my stays at this hotel have had tremendous views from different parts of the building. To top it all off, the staff are incredibly helpful and friendly and the customer service is amazing, but that’s no surprise as that’s basically the second trademark that separates Kimpton hotels from the rest of the hotels out there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r583474177-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583474177</t>
+  </si>
+  <si>
+    <t>One of the best stays</t>
+  </si>
+  <si>
+    <t>Fabolous and new  hotel with spectacular views to main train stations and city. Amazing rooms, amazing bathrooms, the most comfortable bed. Really enjoyed my stay in this hotel. They also have a complimentary driver around the city - they can drop you near by. Tops. Complimentary snack and drinks in the happy hour at 5.MoreShow less</t>
+  </si>
+  <si>
+    <t>Fabolous and new  hotel with spectacular views to main train stations and city. Amazing rooms, amazing bathrooms, the most comfortable bed. Really enjoyed my stay in this hotel. They also have a complimentary driver around the city - they can drop you near by. Tops. Complimentary snack and drinks in the happy hour at 5.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r583415348-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583415348</t>
+  </si>
+  <si>
+    <t>A lot of misses</t>
+  </si>
+  <si>
+    <t>My significant other and I were really excited to stay at the Kimpton Hotel Born for 4 nights over Memorial Day weekend. At the end of our stay, however, we couldn't help feeling disappointed. For what we paid, we expected a much more thoughtful, polished experience. 
+- Hotel requires guests to pay an additional $20+tax fee per day for "amenities". On their website, the first amenity listed is access to their "Tesla Town car". Over our stay we tried to take it at least 12 times...and weren't able to take it once. It was out being washed once for 2 hours and then it was unavailable after 10:30pm one night and then 10pm the night after (lack of standards). We probably paid +$80 in rideshare costs over the 4 days going to places within 2mi of the hotel (equivalent to their fee).
+- Really thin walls. We could hear the television in the room next door...and then some other activities later in the evening (use your imagination). We're pretty confident these activities were happening at a normal/reasonable level as well. 
+- Called for toilet paper at 2pm on a Saturday and it took over 30min for it to be brought up. For reference, it's not a sprawling, resort-type setup. It's a very compact hotel. Can't possibly understand how this could have taken so long.
+- Housekeeping knocked on our door before 9am on 2 different days. Why?
+Bottom-line: For this...My significant other and I were really excited to stay at the Kimpton Hotel Born for 4 nights over Memorial Day weekend. At the end of our stay, however, we couldn't help feeling disappointed. For what we paid, we expected a much more thoughtful, polished experience. - Hotel requires guests to pay an additional $20+tax fee per day for "amenities". On their website, the first amenity listed is access to their "Tesla Town car". Over our stay we tried to take it at least 12 times...and weren't able to take it once. It was out being washed once for 2 hours and then it was unavailable after 10:30pm one night and then 10pm the night after (lack of standards). We probably paid +$80 in rideshare costs over the 4 days going to places within 2mi of the hotel (equivalent to their fee).- Really thin walls. We could hear the television in the room next door...and then some other activities later in the evening (use your imagination). We're pretty confident these activities were happening at a normal/reasonable level as well. - Called for toilet paper at 2pm on a Saturday and it took over 30min for it to be brought up. For reference, it's not a sprawling, resort-type setup. It's a very compact hotel. Can't possibly understand how this could have taken so long.- Housekeeping knocked on our door before 9am on 2 different days. Why?Bottom-line: For this price (especially given the amenity fee) you can certainly do better. Hotel is still new and needs to set the right expectations with customers. While we didn't have any outwardly negative experiences with staff, no one went out of their way to help make our experience better.MoreShow less</t>
+  </si>
+  <si>
+    <t>My significant other and I were really excited to stay at the Kimpton Hotel Born for 4 nights over Memorial Day weekend. At the end of our stay, however, we couldn't help feeling disappointed. For what we paid, we expected a much more thoughtful, polished experience. 
+- Hotel requires guests to pay an additional $20+tax fee per day for "amenities". On their website, the first amenity listed is access to their "Tesla Town car". Over our stay we tried to take it at least 12 times...and weren't able to take it once. It was out being washed once for 2 hours and then it was unavailable after 10:30pm one night and then 10pm the night after (lack of standards). We probably paid +$80 in rideshare costs over the 4 days going to places within 2mi of the hotel (equivalent to their fee).
+- Really thin walls. We could hear the television in the room next door...and then some other activities later in the evening (use your imagination). We're pretty confident these activities were happening at a normal/reasonable level as well. 
+- Called for toilet paper at 2pm on a Saturday and it took over 30min for it to be brought up. For reference, it's not a sprawling, resort-type setup. It's a very compact hotel. Can't possibly understand how this could have taken so long.
+- Housekeeping knocked on our door before 9am on 2 different days. Why?
+Bottom-line: For this...My significant other and I were really excited to stay at the Kimpton Hotel Born for 4 nights over Memorial Day weekend. At the end of our stay, however, we couldn't help feeling disappointed. For what we paid, we expected a much more thoughtful, polished experience. - Hotel requires guests to pay an additional $20+tax fee per day for "amenities". On their website, the first amenity listed is access to their "Tesla Town car". Over our stay we tried to take it at least 12 times...and weren't able to take it once. It was out being washed once for 2 hours and then it was unavailable after 10:30pm one night and then 10pm the night after (lack of standards). We probably paid +$80 in rideshare costs over the 4 days going to places within 2mi of the hotel (equivalent to their fee).- Really thin walls. We could hear the television in the room next door...and then some other activities later in the evening (use your imagination). We're pretty confident these activities were happening at a normal/reasonable level as well. - Called for toilet paper at 2pm on a Saturday and it took over 30min for it to be brought up. For reference, it's not a sprawling, resort-type setup. It's a very compact hotel. Can't possibly understand how this could have taken so long.- Housekeeping knocked on our door before 9am on 2 different days. Why?Bottom-line: For this price (especially given the amenity fee) you can certainly do better. Hotel is still new and needs to set the right expectations with customers. While we didn't have any outwardly negative experiences with staff, no one went out of their way to help make our experience better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r581879993-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>581879993</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>A very nice hotel, but some staff issues</t>
+  </si>
+  <si>
+    <t>What a charming hotel, loved the location and the rooms were lovely. The happy hour was very nice as well. A couple of small issues, the service at breakfast was not great. It's was not busy at all, and it seemed an eternity before anyone came near me after I was seated (husband had eaten earlier and left for work). A couple of girls were standing around chatting, and it was a young man who eventually came over and took my order.After we checked out we asked about a taxi, and if they could ring for one. The person on the desk said there was a rank around the corner. After 15 minutes, there were no taxis so we went back and asked again if they could ring. The answer was that taxis don't come here, Which is strange as we were dropped off by a taxi!  A young man who was outside near the desk ( I wish I got his name) came to our rescue, as he had a friend with a hire car business. We finally made it to the airport, without any help from the front desk. My husband is a spire elite ihg member, and he remarked in all of his considerable years of traveling, he has never experienced a front desk who wouldn't ring a a taxiMoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>What a charming hotel, loved the location and the rooms were lovely. The happy hour was very nice as well. A couple of small issues, the service at breakfast was not great. It's was not busy at all, and it seemed an eternity before anyone came near me after I was seated (husband had eaten earlier and left for work). A couple of girls were standing around chatting, and it was a young man who eventually came over and took my order.After we checked out we asked about a taxi, and if they could ring for one. The person on the desk said there was a rank around the corner. After 15 minutes, there were no taxis so we went back and asked again if they could ring. The answer was that taxis don't come here, Which is strange as we were dropped off by a taxi!  A young man who was outside near the desk ( I wish I got his name) came to our rescue, as he had a friend with a hire car business. We finally made it to the airport, without any help from the front desk. My husband is a spire elite ihg member, and he remarked in all of his considerable years of traveling, he has never experienced a front desk who wouldn't ring a a taxiMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r581746355-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>581746355</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Fantastic!</t>
+  </si>
+  <si>
+    <t>Just had a staycation at hotel born over the weekend.  Staff was phenomenal.  Rooms are as expected.  The happy hour was a nice bonus! Water always available in the lobby.  Dined at both of the restaurants on the property and they were great! The only not so pleasant experience was our Tesla driver. It seemed that they didn't really want to offer it to us, but we requested and they obliged. Then the driver was not friendly in the least and seemed to be put out.  Would be nice to have someone more interactive and friendly like the rest of the staff we encountered.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just had a staycation at hotel born over the weekend.  Staff was phenomenal.  Rooms are as expected.  The happy hour was a nice bonus! Water always available in the lobby.  Dined at both of the restaurants on the property and they were great! The only not so pleasant experience was our Tesla driver. It seemed that they didn't really want to offer it to us, but we requested and they obliged. Then the driver was not friendly in the least and seemed to be put out.  Would be nice to have someone more interactive and friendly like the rest of the staff we encountered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r581673010-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>581673010</t>
+  </si>
+  <si>
+    <t>Lovely Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here during December 2017 with my family.  The hotel staff were very friendly, the rooms very spacious and the location next to Union Station terrific!  I would definitely stay here again.  My son stayed in a room adjacent to the train yard which turned out to be rather noisy at night.  I would suggest choosing a room not on top of the tracks.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here during December 2017 with my family.  The hotel staff were very friendly, the rooms very spacious and the location next to Union Station terrific!  I would definitely stay here again.  My son stayed in a room adjacent to the train yard which turned out to be rather noisy at night.  I would suggest choosing a room not on top of the tracks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r575422547-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575422547</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Location, Location, Location!</t>
+  </si>
+  <si>
+    <t>This is our third visit to the Kimpton Born.  My spouse and I have been Kimpton fans for years now, although I miss the "Raid the MiniBar" fun that seems to be discontinued!We appreciate the stylish rooms, great lighting, love the walnut wood and bathroom design. And the passes to the Colorado Athletic Club are a terrific value.  What a terrific club, with great yoga and shower and steam/sauna. My only criticism is a lack of energy conservation.  The Born has an energy efficient revolving door but the employees consistently use the regular exit doors which makes the lobby chilly and certainly doesn't conserve energy when there is a revolving door present.  And the valets consistently tried to open the door for us and we told them we preferred to use the revolving door.  It was 35 degrees outside. And finally we came to our room after housekeeping was there with 5 lights blazing. I assume this was a directive to housekeeping but the energy waste annoyed me. The staff is friendly.  We like walking over to Union Station and certainly use the RTD train to and from the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded April 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2018</t>
+  </si>
+  <si>
+    <t>This is our third visit to the Kimpton Born.  My spouse and I have been Kimpton fans for years now, although I miss the "Raid the MiniBar" fun that seems to be discontinued!We appreciate the stylish rooms, great lighting, love the walnut wood and bathroom design. And the passes to the Colorado Athletic Club are a terrific value.  What a terrific club, with great yoga and shower and steam/sauna. My only criticism is a lack of energy conservation.  The Born has an energy efficient revolving door but the employees consistently use the regular exit doors which makes the lobby chilly and certainly doesn't conserve energy when there is a revolving door present.  And the valets consistently tried to open the door for us and we told them we preferred to use the revolving door.  It was 35 degrees outside. And finally we came to our room after housekeeping was there with 5 lights blazing. I assume this was a directive to housekeeping but the energy waste annoyed me. The staff is friendly.  We like walking over to Union Station and certainly use the RTD train to and from the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r575315348-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575315348</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Kimpton + Code Name Brian</t>
+  </si>
+  <si>
+    <t>I’ve stayed in some pretty swanky hotels, but Kimpton Born just blew most of them out of the water. It’s all begins with customer service and Brian was FUN, helpful and went above and beyond (making sure I had plenty of my favorite body lotion, an extra luggage valet, a list of the yoga schedule next door AND recommendations on the best restaurants) seriously! Yes, I can be high-maintenance, but Code Name Brian GOT IT and made it happen! Kimpton Hotels...I sorta liked you before, but with more Brians, I might LOVE you! New, clean, whatever the fragrance is...I want it. This is an exceptional hotel in the heart of LoDo...too bad I’m only staying 3 days! MoreShow less</t>
+  </si>
+  <si>
+    <t>I’ve stayed in some pretty swanky hotels, but Kimpton Born just blew most of them out of the water. It’s all begins with customer service and Brian was FUN, helpful and went above and beyond (making sure I had plenty of my favorite body lotion, an extra luggage valet, a list of the yoga schedule next door AND recommendations on the best restaurants) seriously! Yes, I can be high-maintenance, but Code Name Brian GOT IT and made it happen! Kimpton Hotels...I sorta liked you before, but with more Brians, I might LOVE you! New, clean, whatever the fragrance is...I want it. This is an exceptional hotel in the heart of LoDo...too bad I’m only staying 3 days! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r575170181-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575170181</t>
+  </si>
+  <si>
+    <t>Great location. Great staff. Great stay.</t>
+  </si>
+  <si>
+    <t>First, the greeting by the staff made myself and my travel companion feel very welcome. Personable. Helpful. Professional. The location is exceptional. Adjacent to Union Station and quality restaurants &amp; parks. Lots to do within walking distance including 16th street.The view from our room overlooking Union Station provided an exceptional sunrise and people watching at the train station and Union Station from 11 floors up.The atmosphere created by the architecture and interior design was bright and cheerful. The art exhibited throughout the property was interesting and engaging. The rom was funky in an enjoyable way. A blend of surface finishes, the lighting and the overall layout bordered on neo-bohemian. I can't say enough about Born. We thoroughly enjoyed our all too brief stay. I will return. Soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2018</t>
+  </si>
+  <si>
+    <t>First, the greeting by the staff made myself and my travel companion feel very welcome. Personable. Helpful. Professional. The location is exceptional. Adjacent to Union Station and quality restaurants &amp; parks. Lots to do within walking distance including 16th street.The view from our room overlooking Union Station provided an exceptional sunrise and people watching at the train station and Union Station from 11 floors up.The atmosphere created by the architecture and interior design was bright and cheerful. The art exhibited throughout the property was interesting and engaging. The rom was funky in an enjoyable way. A blend of surface finishes, the lighting and the overall layout bordered on neo-bohemian. I can't say enough about Born. We thoroughly enjoyed our all too brief stay. I will return. Soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r573982953-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>573982953</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Exceptional</t>
+  </si>
+  <si>
+    <t>I was not sure what to expect before I arrived at the Kimpton Hotel Born, but I can honestly say that everything from when I arrived at valet to the time I checked out was exceptional. The halls, the doors, the bar, and the room were fantastic! I had an amazing view from my room of the surrounding area. I cannot wait to return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>I was not sure what to expect before I arrived at the Kimpton Hotel Born, but I can honestly say that everything from when I arrived at valet to the time I checked out was exceptional. The halls, the doors, the bar, and the room were fantastic! I had an amazing view from my room of the surrounding area. I cannot wait to return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r573864864-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>573864864</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Awesome location with great service.</t>
+  </si>
+  <si>
+    <t>I’ve stayed here at least 4 times and each time it’s always amazing. The hotel staff are all polite/helpful. BRYAN is beyond a wonderful employee. He is courteous attentive and overall a five star employee. He always makes sure everything is perfect and is willing to go out of the way to make the customer happy. He is extremely polite/ personable. I’ve stayed in a few different types of rooms and these particular photos I believe it is the zephyr room. Clean is a huge thing in my book and every room I’ve stayed in has been very clean. I also have very bad allergies and I love how they don’t use room fresheners &amp; chemicals so i know it’s actually clean and not just a masked over sprayed smell like a lot of other hotels. The Location is awesome. Most of the rates include a 2 mile radius Tesla complimentary drop off/pick up. Also, includes access to the museum of contemporary art, complimentary access to the Colorado athletic club, access to on site fitness center. I always have a vehicle however, I know it is close to all public transportation. Whole Foods is right across the street. The restaurant downstairs has good food also with a bar. Only thing it’s lacking is a spa. But definitely stay here if you are unsure of a hotel. Always a nice  price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>I’ve stayed here at least 4 times and each time it’s always amazing. The hotel staff are all polite/helpful. BRYAN is beyond a wonderful employee. He is courteous attentive and overall a five star employee. He always makes sure everything is perfect and is willing to go out of the way to make the customer happy. He is extremely polite/ personable. I’ve stayed in a few different types of rooms and these particular photos I believe it is the zephyr room. Clean is a huge thing in my book and every room I’ve stayed in has been very clean. I also have very bad allergies and I love how they don’t use room fresheners &amp; chemicals so i know it’s actually clean and not just a masked over sprayed smell like a lot of other hotels. The Location is awesome. Most of the rates include a 2 mile radius Tesla complimentary drop off/pick up. Also, includes access to the museum of contemporary art, complimentary access to the Colorado athletic club, access to on site fitness center. I always have a vehicle however, I know it is close to all public transportation. Whole Foods is right across the street. The restaurant downstairs has good food also with a bar. Only thing it’s lacking is a spa. But definitely stay here if you are unsure of a hotel. Always a nice  price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r573818232-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>573818232</t>
+  </si>
+  <si>
+    <t>The Born, great hotel at a reasonable price.</t>
+  </si>
+  <si>
+    <t>Amazing hotel with great rooms, bar, and amenities.  It also very convenient ... you can take the train from DIA and it's less than a 3-minute walk from the train terminal. The train ride is $9 and you won't get stuck in Denver traffic. I highly recommend staying at the Born.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amazing hotel with great rooms, bar, and amenities.  It also very convenient ... you can take the train from DIA and it's less than a 3-minute walk from the train terminal. The train ride is $9 and you won't get stuck in Denver traffic. I highly recommend staying at the Born.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r572770964-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>572770964</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Great stay at the Born</t>
+  </si>
+  <si>
+    <t>We stayed at the Born for the first time.  It is very modern, clean and I love the wood touches all over the place.  Would definitely recommend a stay here.  The location also can't be beat.  So many amazing things near by within easy walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at the Born for the first time.  It is very modern, clean and I love the wood touches all over the place.  Would definitely recommend a stay here.  The location also can't be beat.  So many amazing things near by within easy walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r572739769-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>572739769</t>
+  </si>
+  <si>
+    <t>Hotel Born Denver</t>
+  </si>
+  <si>
+    <t>I loved my stay at The Born in Denver.  It is new, sleek and modern but still warm and cozy in the reception area. The light woodwork in the upstairs halls where rooms are is stunning, as was my comfortable and very nice room. The bed was amazing and I had the best nights’ sleep!The wine hour is a very nice gesture as is the coffee bar in the mornings. The staff is outstanding in every way. I look forward to my next visit at the Kimpton Born Hotel in Denver!MoreShow less</t>
+  </si>
+  <si>
+    <t>I loved my stay at The Born in Denver.  It is new, sleek and modern but still warm and cozy in the reception area. The light woodwork in the upstairs halls where rooms are is stunning, as was my comfortable and very nice room. The bed was amazing and I had the best nights’ sleep!The wine hour is a very nice gesture as is the coffee bar in the mornings. The staff is outstanding in every way. I look forward to my next visit at the Kimpton Born Hotel in Denver!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r572314341-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>572314341</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great LoDo location and amenities </t>
+  </si>
+  <si>
+    <t>We loved our stay at the hotel Born. The staff were incredibly helpful, including accommodating an early check in (thanks, Steven!). The atmosphere at Citizen Rail the hotel bar and restaurant was relaxed and comfortable as was the hotel itself. Location can’t be beat. We were looking forward to a ride in the Tesla but ended up walking everywhere we went. Will definitely stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>We loved our stay at the hotel Born. The staff were incredibly helpful, including accommodating an early check in (thanks, Steven!). The atmosphere at Citizen Rail the hotel bar and restaurant was relaxed and comfortable as was the hotel itself. Location can’t be beat. We were looking forward to a ride in the Tesla but ended up walking everywhere we went. Will definitely stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r570594047-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>570594047</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>What a great downtown hotel! We had tickets to Hamilton and staying at the Born allowed great and easy access to the free 16th st Shuttle which tools us a block away from the Denver Performing Art Center.  The hotel is refreshingly warm and modern. And everyone from the valet service to front not desk was friendly and gracious. Our room had floor to ceiling windows allowing great downtown views and there’s a Happy Hour with drinks and snacks...what else could you ask for in friendly service. The Citizen Rail Restaurant was great for breakfast ( probably every meal there is great) and just out the door are plenty of great choices for dining. Really a terrific hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>What a great downtown hotel! We had tickets to Hamilton and staying at the Born allowed great and easy access to the free 16th st Shuttle which tools us a block away from the Denver Performing Art Center.  The hotel is refreshingly warm and modern. And everyone from the valet service to front not desk was friendly and gracious. Our room had floor to ceiling windows allowing great downtown views and there’s a Happy Hour with drinks and snacks...what else could you ask for in friendly service. The Citizen Rail Restaurant was great for breakfast ( probably every meal there is great) and just out the door are plenty of great choices for dining. Really a terrific hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r570553039-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>570553039</t>
+  </si>
+  <si>
+    <t>Very Sophisticated and Elegant Hotel.</t>
+  </si>
+  <si>
+    <t>I love the décor of the hotel and the Staff is Polite, Kind and very Accommodating to our every need.  After traveling for 1300+ miles and only to stay one night, they made us feel welcome and catered to our needs for the short stay.  Would definitely stay again.  The wine and appetizer @ 5 was a pleasant surprise and a welcome "Unwind" after a long flight.MoreShow less</t>
+  </si>
+  <si>
+    <t>I love the décor of the hotel and the Staff is Polite, Kind and very Accommodating to our every need.  After traveling for 1300+ miles and only to stay one night, they made us feel welcome and catered to our needs for the short stay.  Would definitely stay again.  The wine and appetizer @ 5 was a pleasant surprise and a welcome "Unwind" after a long flight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r570251261-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>570251261</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Close to Union Station and great food options close by</t>
+  </si>
+  <si>
+    <t>Expensive option but really beautiful room and amenities. Had a view over Union Station but didn't have the noise. Walked to a baseball stadium to watch the Rockies lose to the Dodgers but had great food and beer on the way. Walked into central city, easy to get to free shuttle tram and eat out. Caught train to Mile High to watch the Broncos beat the Raiders (always good!!) so close. Handy to everything. Minimart downstairs is handy.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Expensive option but really beautiful room and amenities. Had a view over Union Station but didn't have the noise. Walked to a baseball stadium to watch the Rockies lose to the Dodgers but had great food and beer on the way. Walked into central city, easy to get to free shuttle tram and eat out. Caught train to Mile High to watch the Broncos beat the Raiders (always good!!) so close. Handy to everything. Minimart downstairs is handy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r568801012-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>568801012</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Great location, great staff and really comfortable</t>
+  </si>
+  <si>
+    <t>We stayed from 15-19 March, and really enjoyed the hotel. So close to Union station, which makes it really easy getting to and from the airport. Really central to the mall, but also access to bike/walking trails. It was our first time to Denver and having stayed would definitely pick the hotel again, and recommend Denver. Just wished we had more time there and had gotten to the ski slopes. The decor was a bit different, as you can see from the photos on the website, but fits. The rooms are comfortable, and the bed meant we had one of the best nights sleep in 9 weeks on the road.  Heating was very efficient - and only one slight negative, the heating unit was quite noise due to airflow when operating but as it was so effective, we didn’t need heating while sleeping. We were delayed in our arrival a couple of days due to storm in Boston that closed the airport - the reservations team were understanding, accommodating and flexible. The staff were friendly, welcoming and helpful, and the nightly happy hour was a nice touch. Coffee maker (keurig) supplied on request (you just need to ask :)) - and no issue with more coffee pods being provided on request (but would be even better if didn’t have to ask). Check in and out quick and seamless, staff were great, and the hotel was new, lovely and quiet. We...We stayed from 15-19 March, and really enjoyed the hotel. So close to Union station, which makes it really easy getting to and from the airport. Really central to the mall, but also access to bike/walking trails. It was our first time to Denver and having stayed would definitely pick the hotel again, and recommend Denver. Just wished we had more time there and had gotten to the ski slopes. The decor was a bit different, as you can see from the photos on the website, but fits. The rooms are comfortable, and the bed meant we had one of the best nights sleep in 9 weeks on the road.  Heating was very efficient - and only one slight negative, the heating unit was quite noise due to airflow when operating but as it was so effective, we didn’t need heating while sleeping. We were delayed in our arrival a couple of days due to storm in Boston that closed the airport - the reservations team were understanding, accommodating and flexible. The staff were friendly, welcoming and helpful, and the nightly happy hour was a nice touch. Coffee maker (keurig) supplied on request (you just need to ask :)) - and no issue with more coffee pods being provided on request (but would be even better if didn’t have to ask). Check in and out quick and seamless, staff were great, and the hotel was new, lovely and quiet. We used the time to walk, but there is a free mall bus, and don’t miss the blue bear (i see what you mean) at the convention centre. We did notice a large number of homeless people when walking around so me parts of Denver, but none near hotel. Also, 2 supermarkets were close by which was very convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2018</t>
+  </si>
+  <si>
+    <t>We stayed from 15-19 March, and really enjoyed the hotel. So close to Union station, which makes it really easy getting to and from the airport. Really central to the mall, but also access to bike/walking trails. It was our first time to Denver and having stayed would definitely pick the hotel again, and recommend Denver. Just wished we had more time there and had gotten to the ski slopes. The decor was a bit different, as you can see from the photos on the website, but fits. The rooms are comfortable, and the bed meant we had one of the best nights sleep in 9 weeks on the road.  Heating was very efficient - and only one slight negative, the heating unit was quite noise due to airflow when operating but as it was so effective, we didn’t need heating while sleeping. We were delayed in our arrival a couple of days due to storm in Boston that closed the airport - the reservations team were understanding, accommodating and flexible. The staff were friendly, welcoming and helpful, and the nightly happy hour was a nice touch. Coffee maker (keurig) supplied on request (you just need to ask :)) - and no issue with more coffee pods being provided on request (but would be even better if didn’t have to ask). Check in and out quick and seamless, staff were great, and the hotel was new, lovely and quiet. We...We stayed from 15-19 March, and really enjoyed the hotel. So close to Union station, which makes it really easy getting to and from the airport. Really central to the mall, but also access to bike/walking trails. It was our first time to Denver and having stayed would definitely pick the hotel again, and recommend Denver. Just wished we had more time there and had gotten to the ski slopes. The decor was a bit different, as you can see from the photos on the website, but fits. The rooms are comfortable, and the bed meant we had one of the best nights sleep in 9 weeks on the road.  Heating was very efficient - and only one slight negative, the heating unit was quite noise due to airflow when operating but as it was so effective, we didn’t need heating while sleeping. We were delayed in our arrival a couple of days due to storm in Boston that closed the airport - the reservations team were understanding, accommodating and flexible. The staff were friendly, welcoming and helpful, and the nightly happy hour was a nice touch. Coffee maker (keurig) supplied on request (you just need to ask :)) - and no issue with more coffee pods being provided on request (but would be even better if didn’t have to ask). Check in and out quick and seamless, staff were great, and the hotel was new, lovely and quiet. We used the time to walk, but there is a free mall bus, and don’t miss the blue bear (i see what you mean) at the convention centre. We did notice a large number of homeless people when walking around so me parts of Denver, but none near hotel. Also, 2 supermarkets were close by which was very convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r568762935-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>568762935</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>So nice! A few feet from Union Station. Parking is not cheap.</t>
+  </si>
+  <si>
+    <t>Stayed in a queen/queen room on the 10th floor. The room was great. The bathroom was gorgeous. There was a lot of floor space in the bathroom but only a single sink. There was a nice walk-in shower (no tub). The toilet was in its own room within the bathroom area. Its door was frosted glass (not terribly see-through, but not opaque) that didn't go all the way to the ceiling, so if you're really into toilet room privacy, you might not love this. My very favorite thing about Kimptons is the body wash. It is the best smelling substance in the world.This hotel had the bath wash in a giant bottle instead of the little bottles, so I didn't get to take home the leftovers. Thumbs up for the magnifying mirror in the bathroom. I do miss having an in-room coffee maker, but they do have complimentary coffee in the lobby in the morning. They also have a happy hour with wine and beer in the early evening in the lobby. There are lots of places within walking distance. The parking is valet and it was $48 per night. That made the good deal we got on the room not as good, but added together, the total price was still not outrageous. One small quibble was that the bedside lights were not the individual pinpoint reading lights like we had in our Kimpton Muse hotel in NYC. It's really...Stayed in a queen/queen room on the 10th floor. The room was great. The bathroom was gorgeous. There was a lot of floor space in the bathroom but only a single sink. There was a nice walk-in shower (no tub). The toilet was in its own room within the bathroom area. Its door was frosted glass (not terribly see-through, but not opaque) that didn't go all the way to the ceiling, so if you're really into toilet room privacy, you might not love this. My very favorite thing about Kimptons is the body wash. It is the best smelling substance in the world.This hotel had the bath wash in a giant bottle instead of the little bottles, so I didn't get to take home the leftovers. Thumbs up for the magnifying mirror in the bathroom. I do miss having an in-room coffee maker, but they do have complimentary coffee in the lobby in the morning. They also have a happy hour with wine and beer in the early evening in the lobby. There are lots of places within walking distance. The parking is valet and it was $48 per night. That made the good deal we got on the room not as good, but added together, the total price was still not outrageous. One small quibble was that the bedside lights were not the individual pinpoint reading lights like we had in our Kimpton Muse hotel in NYC. It's really nice to have those when some people want to stay up reading and others want to sleep in relative darkness.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed in a queen/queen room on the 10th floor. The room was great. The bathroom was gorgeous. There was a lot of floor space in the bathroom but only a single sink. There was a nice walk-in shower (no tub). The toilet was in its own room within the bathroom area. Its door was frosted glass (not terribly see-through, but not opaque) that didn't go all the way to the ceiling, so if you're really into toilet room privacy, you might not love this. My very favorite thing about Kimptons is the body wash. It is the best smelling substance in the world.This hotel had the bath wash in a giant bottle instead of the little bottles, so I didn't get to take home the leftovers. Thumbs up for the magnifying mirror in the bathroom. I do miss having an in-room coffee maker, but they do have complimentary coffee in the lobby in the morning. They also have a happy hour with wine and beer in the early evening in the lobby. There are lots of places within walking distance. The parking is valet and it was $48 per night. That made the good deal we got on the room not as good, but added together, the total price was still not outrageous. One small quibble was that the bedside lights were not the individual pinpoint reading lights like we had in our Kimpton Muse hotel in NYC. It's really...Stayed in a queen/queen room on the 10th floor. The room was great. The bathroom was gorgeous. There was a lot of floor space in the bathroom but only a single sink. There was a nice walk-in shower (no tub). The toilet was in its own room within the bathroom area. Its door was frosted glass (not terribly see-through, but not opaque) that didn't go all the way to the ceiling, so if you're really into toilet room privacy, you might not love this. My very favorite thing about Kimptons is the body wash. It is the best smelling substance in the world.This hotel had the bath wash in a giant bottle instead of the little bottles, so I didn't get to take home the leftovers. Thumbs up for the magnifying mirror in the bathroom. I do miss having an in-room coffee maker, but they do have complimentary coffee in the lobby in the morning. They also have a happy hour with wine and beer in the early evening in the lobby. There are lots of places within walking distance. The parking is valet and it was $48 per night. That made the good deal we got on the room not as good, but added together, the total price was still not outrageous. One small quibble was that the bedside lights were not the individual pinpoint reading lights like we had in our Kimpton Muse hotel in NYC. It's really nice to have those when some people want to stay up reading and others want to sleep in relative darkness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r567555665-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>567555665</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Amazing location!</t>
+  </si>
+  <si>
+    <t>My husband &amp; I had an amazing 3 day visit to Denver to see our son and stayed at the new Kimpton Born Hotel.  From arrival at Union  Station from the airport, it was steps away to the hotel....so convenient!  Our well decorated room was quiet, staff extremely helpful and I would give this a 10.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenn G, Manager at Kimpton Hotel Born, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>My husband &amp; I had an amazing 3 day visit to Denver to see our son and stayed at the new Kimpton Born Hotel.  From arrival at Union  Station from the airport, it was steps away to the hotel....so convenient!  Our well decorated room was quiet, staff extremely helpful and I would give this a 10.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r566739115-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566739115</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>New &amp; Fabulous</t>
+  </si>
+  <si>
+    <t>This hotel is the nicest Kimpton property that we have visited.  Why?  It is less than a year old, was extremely fresh, clean, and beautiful inside (not sure the decor but I’d say a cross between urban hip and Colorado outdoorsy), attentive staff (shout out to the doormen who went above and beyond to ensure we felt welcome), and then there are the rooms.  The room we had was exquisite!  Huge king suite with two rooms big enough for our family of four.  Huge soaking tub, plenty of hot water, double sinks, comfy bed, two huge TVs, and plenty of storage.  We had a pass to the athletic club in our room rate and that was a plus.  And the location is everything - a block from the trains that go all over the area and pleasant walks everywhere.  I can’t wait to visit this location again!  MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is the nicest Kimpton property that we have visited.  Why?  It is less than a year old, was extremely fresh, clean, and beautiful inside (not sure the decor but I’d say a cross between urban hip and Colorado outdoorsy), attentive staff (shout out to the doormen who went above and beyond to ensure we felt welcome), and then there are the rooms.  The room we had was exquisite!  Huge king suite with two rooms big enough for our family of four.  Huge soaking tub, plenty of hot water, double sinks, comfy bed, two huge TVs, and plenty of storage.  We had a pass to the athletic club in our room rate and that was a plus.  And the location is everything - a block from the trains that go all over the area and pleasant walks everywhere.  I can’t wait to visit this location again!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r566276990-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566276990</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Awesome Staff</t>
+  </si>
+  <si>
+    <t>We stayed in two seperate rooms as our visit bruoght us back to Denver. Originally we were going to stay in another hotel but we had such a great experiance the first visit we decided to stay at the Born for the back end of our trip. Both room s were amazing and the secound even more so as it was a mini suite.The staff goes above and beyond to ensure you have a great visit.The only thing I can add is for the hotel to add baskets to the bicycles so you can have a place to store your purchases while riding around the city.Well done team Born :-)Gerg RMoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed in two seperate rooms as our visit bruoght us back to Denver. Originally we were going to stay in another hotel but we had such a great experiance the first visit we decided to stay at the Born for the back end of our trip. Both room s were amazing and the secound even more so as it was a mini suite.The staff goes above and beyond to ensure you have a great visit.The only thing I can add is for the hotel to add baskets to the bicycles so you can have a place to store your purchases while riding around the city.Well done team Born :-)Gerg RMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r566098809-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566098809</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Just okay</t>
+  </si>
+  <si>
+    <t>I stay at a lot of hotels for work. This one seemed to be reasonable priced for a downtown hotel. Room cleaning was hit or miss, one day nothing was cleaned and we had a knock on the door after 6 to clean it but by then we were settled. The restaurant we made reservations for at the hotel had closed on a Saturday night for what I can only assume was an issue with cleanliness since they were scrubbing both times I walked past in the evening. You'd need something extreme to close on a busy Saturday evening.  The parking at the hotel is an overly priced $48 and not posted anywhere as to the cost, yes I could have asked but it's still high compared to others in the area. The $20 resort fee is hidden in every way, the website omits this, while any other hotel i stay at makss it clear when quoting a price. Overall I'd likely stay at the Sheraton next time for less the price, and enjoy more service offerings and location.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at a lot of hotels for work. This one seemed to be reasonable priced for a downtown hotel. Room cleaning was hit or miss, one day nothing was cleaned and we had a knock on the door after 6 to clean it but by then we were settled. The restaurant we made reservations for at the hotel had closed on a Saturday night for what I can only assume was an issue with cleanliness since they were scrubbing both times I walked past in the evening. You'd need something extreme to close on a busy Saturday evening.  The parking at the hotel is an overly priced $48 and not posted anywhere as to the cost, yes I could have asked but it's still high compared to others in the area. The $20 resort fee is hidden in every way, the website omits this, while any other hotel i stay at makss it clear when quoting a price. Overall I'd likely stay at the Sheraton next time for less the price, and enjoy more service offerings and location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r564983504-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>564983504</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Brand new!</t>
+  </si>
+  <si>
+    <t>I really enjoy a new hotel for its freshness and decor. The Kimpton Born is located in a newly developing part of Denver right behind Union Station with its fabulous cafes and restaurants. The free 16th St bus runs regularly.There is nothing superfluous at the Born - it is very tasteful, lots of timber and clean lines. Our room, filled with natural light, was a corner spa suite on floor 6 and we had a great view over Union Station. The bathroom was huge, with quality products and the king bed was super comfortable.The staff were friendly and cheerful which is what you want on a holiday!By the way, Google maps etc did have trouble finding the hotel. Maybe put in Union Station and then ring the hotel if you haven’t been there before.MoreShow less</t>
+  </si>
+  <si>
+    <t>I really enjoy a new hotel for its freshness and decor. The Kimpton Born is located in a newly developing part of Denver right behind Union Station with its fabulous cafes and restaurants. The free 16th St bus runs regularly.There is nothing superfluous at the Born - it is very tasteful, lots of timber and clean lines. Our room, filled with natural light, was a corner spa suite on floor 6 and we had a great view over Union Station. The bathroom was huge, with quality products and the king bed was super comfortable.The staff were friendly and cheerful which is what you want on a holiday!By the way, Google maps etc did have trouble finding the hotel. Maybe put in Union Station and then ring the hotel if you haven’t been there before.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r564701889-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>564701889</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Best conference I have been to ! Hotel did a great job !</t>
+  </si>
+  <si>
+    <t>Conveniently located to Union Station and downtown, this hotel is fabulous.  I attend a lot of conferences and I have to say the Born does it right.  Every staff member made sure all of us felt very welcomed.  The second floor conference center is great.  The food was well above the standard conference lunches and snacks.   Now to the rooms - they are beautiful and have everything you need.  Comfortable and every detail has been thought through.   Stay here for sure if you are going to Denver - HIGHLY RECOMMENDMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Conveniently located to Union Station and downtown, this hotel is fabulous.  I attend a lot of conferences and I have to say the Born does it right.  Every staff member made sure all of us felt very welcomed.  The second floor conference center is great.  The food was well above the standard conference lunches and snacks.   Now to the rooms - they are beautiful and have everything you need.  Comfortable and every detail has been thought through.   Stay here for sure if you are going to Denver - HIGHLY RECOMMENDMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r564145075-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>564145075</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Amazing Denver Hotel in the Best Location!</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed here a few times since it opened, and it's been been better every time. It's about a two-minute walk from Union Station (hub for Denver trains and buses), so super-easy to get to without a car. Rooms have a ski-lodge vibe -- clean, lots of wood, thoughtful design. The staff is amazing --we got wine at the social hour from a guy named Von who was totally cool and knew everything about the hotel! ;) Loved the bar, the fireplace in the lobby, and the fact they remember the Inner Circle people!Lots of great restaurants and drinking spots within easy walking distance (we love Jax!)MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed here a few times since it opened, and it's been been better every time. It's about a two-minute walk from Union Station (hub for Denver trains and buses), so super-easy to get to without a car. Rooms have a ski-lodge vibe -- clean, lots of wood, thoughtful design. The staff is amazing --we got wine at the social hour from a guy named Von who was totally cool and knew everything about the hotel! ;) Loved the bar, the fireplace in the lobby, and the fact they remember the Inner Circle people!Lots of great restaurants and drinking spots within easy walking distance (we love Jax!)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r563223965-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>563223965</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Excellent experience and great location!</t>
+  </si>
+  <si>
+    <t>I spent 3 nights at this property while visiting Denver for work. I chose this particular hotel because it was in walking distance from the office, but it turned out to be located great relative to everything. I also chose it because of my previous experiences at other Kimpton properties.
+As soon as I arrived, I was greeted by the great lobby design, along with the friendly people at the front desk. Check in was smooth, and consistent with my previous great Kimpton experiences. It was happy hour in the lobby, and I chose a tasty beer from a local brewery, along with small snack they were offering before heading to my room. The hallways are very visually appealing, and the natural pine gives it a great woodsy smell. Upon entering my room, I was again impressed with the decor. Everything was beautiful. I guess it is probably a bit of a masculine feel, so maybe I'm partial to it, but really liked every aspect of the room. Right down to the tiny graffiti-like art in the closet. Nice touch designers! The bathroom was spacious, clean, and modern, with a separate toilet room, standing shower, and great lighting options.
+The hotel itself is located right behind Union Station, where you can take a $9 train ride to and from the airport. Just another block away is the free 16th street mall bus, which will take you from the hotel (which...I spent 3 nights at this property while visiting Denver for work. I chose this particular hotel because it was in walking distance from the office, but it turned out to be located great relative to everything. I also chose it because of my previous experiences at other Kimpton properties.As soon as I arrived, I was greeted by the great lobby design, along with the friendly people at the front desk. Check in was smooth, and consistent with my previous great Kimpton experiences. It was happy hour in the lobby, and I chose a tasty beer from a local brewery, along with small snack they were offering before heading to my room. The hallways are very visually appealing, and the natural pine gives it a great woodsy smell. Upon entering my room, I was again impressed with the decor. Everything was beautiful. I guess it is probably a bit of a masculine feel, so maybe I'm partial to it, but really liked every aspect of the room. Right down to the tiny graffiti-like art in the closet. Nice touch designers! The bathroom was spacious, clean, and modern, with a separate toilet room, standing shower, and great lighting options.The hotel itself is located right behind Union Station, where you can take a $9 train ride to and from the airport. Just another block away is the free 16th street mall bus, which will take you from the hotel (which is pretty much the southernmost part of the route) all the way up to the city center, and anywhere in between. Great options for food nearby, and Whole Foods a block away if you want to pick up snacks or beverages. I did find out that they unfortunately do not sell any beer or wine. I would highly recommend this hotel to anyone visiting Denver. It's location is fantastic, service is top notch, and hotel itself is beautifully designed and decorated.MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent 3 nights at this property while visiting Denver for work. I chose this particular hotel because it was in walking distance from the office, but it turned out to be located great relative to everything. I also chose it because of my previous experiences at other Kimpton properties.
+As soon as I arrived, I was greeted by the great lobby design, along with the friendly people at the front desk. Check in was smooth, and consistent with my previous great Kimpton experiences. It was happy hour in the lobby, and I chose a tasty beer from a local brewery, along with small snack they were offering before heading to my room. The hallways are very visually appealing, and the natural pine gives it a great woodsy smell. Upon entering my room, I was again impressed with the decor. Everything was beautiful. I guess it is probably a bit of a masculine feel, so maybe I'm partial to it, but really liked every aspect of the room. Right down to the tiny graffiti-like art in the closet. Nice touch designers! The bathroom was spacious, clean, and modern, with a separate toilet room, standing shower, and great lighting options.
+The hotel itself is located right behind Union Station, where you can take a $9 train ride to and from the airport. Just another block away is the free 16th street mall bus, which will take you from the hotel (which...I spent 3 nights at this property while visiting Denver for work. I chose this particular hotel because it was in walking distance from the office, but it turned out to be located great relative to everything. I also chose it because of my previous experiences at other Kimpton properties.As soon as I arrived, I was greeted by the great lobby design, along with the friendly people at the front desk. Check in was smooth, and consistent with my previous great Kimpton experiences. It was happy hour in the lobby, and I chose a tasty beer from a local brewery, along with small snack they were offering before heading to my room. The hallways are very visually appealing, and the natural pine gives it a great woodsy smell. Upon entering my room, I was again impressed with the decor. Everything was beautiful. I guess it is probably a bit of a masculine feel, so maybe I'm partial to it, but really liked every aspect of the room. Right down to the tiny graffiti-like art in the closet. Nice touch designers! The bathroom was spacious, clean, and modern, with a separate toilet room, standing shower, and great lighting options.The hotel itself is located right behind Union Station, where you can take a $9 train ride to and from the airport. Just another block away is the free 16th street mall bus, which will take you from the hotel (which is pretty much the southernmost part of the route) all the way up to the city center, and anywhere in between. Great options for food nearby, and Whole Foods a block away if you want to pick up snacks or beverages. I did find out that they unfortunately do not sell any beer or wine. I would highly recommend this hotel to anyone visiting Denver. It's location is fantastic, service is top notch, and hotel itself is beautifully designed and decorated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r563041934-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>563041934</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>Great Location, Masculine Vibe</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Born so we could really relax and enjoy our dinner reservation at Tavernetta (next door). The hotel is lovely, new, and has a bit of masculine energy - lots of exposed wood, piney scent, darker prints and fabrics, etc. The art in the hotel is fantastic, and we took advantage of the $0.01 admission to the Museum of Contemporary Art offered by the hotel as well. Happy hour was great. Rooms were comfortable and clean, and the best of Union Station and LoDo is easily walkable. Special thanks to Brian at the front desk. We will stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r563029969-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>563029969</t>
+  </si>
+  <si>
+    <t>Just lovely!</t>
+  </si>
+  <si>
+    <t>Located right next to Union Station in the trendy LoDo section of Denver, this hotel offers easy access to/from DIA. It also has many nearby restaurants. The staff was friendly, the light wood throughout very welcoming, the artwork and decor tasteful and modern. The room was spacious, comfortable and well-appointed. The bed was comfortable and the stall shower in the bath is one of the very few I’ve encountered that didn’t result in major wet spots on the bathroom floor.  The only two things I wish they would do differently are: have some brighter lights in the rooms (I think it might have been a bit hard to do much reading at the desk) and provide coffeemakers in the room. The free morning coffee partially makes up for this but I like to make some tea at night but didn’t want to pay the $6 + $5 delivery +19% service charge for a small pot. But these are small gripes that can be fixed with simple tweaks or planning. Our overall impression of the hotel was “wow, nice”. We were disappointed we didn’t have time to use the complimentary admission to the contemporary art museum but it sure is nice they offer it. MoreShow less</t>
+  </si>
+  <si>
+    <t>Located right next to Union Station in the trendy LoDo section of Denver, this hotel offers easy access to/from DIA. It also has many nearby restaurants. The staff was friendly, the light wood throughout very welcoming, the artwork and decor tasteful and modern. The room was spacious, comfortable and well-appointed. The bed was comfortable and the stall shower in the bath is one of the very few I’ve encountered that didn’t result in major wet spots on the bathroom floor.  The only two things I wish they would do differently are: have some brighter lights in the rooms (I think it might have been a bit hard to do much reading at the desk) and provide coffeemakers in the room. The free morning coffee partially makes up for this but I like to make some tea at night but didn’t want to pay the $6 + $5 delivery +19% service charge for a small pot. But these are small gripes that can be fixed with simple tweaks or planning. Our overall impression of the hotel was “wow, nice”. We were disappointed we didn’t have time to use the complimentary admission to the contemporary art museum but it sure is nice they offer it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r560092696-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>560092696</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>5-star potential but had a few kinks</t>
+  </si>
+  <si>
+    <t>This hotel is designed impeccably, is in an excellent location, and the staff are incredibly friendly. Brian at the front was amazing! He upgraded our room free of charge since our room wasn’t ready when we got there. We got a corner suite (room 625), which was AMAZING. If you can, definitely stay in a corner room! Included in the price for this hotel: free beer/wine hour with appetizers from 5-6pm. Courtesy Tesla that drives you anywhere in a 2 mile radius of the hotel. Free admission to the museum of contemporary art (NOTE the museum is closed on Mondays). As for the kinks: we’d requested a food and water bowl for our dog which never came. Our phone in the room didn’t work. The courtesy Tesla wasn’t working the day we were there. Also, they refused to let us check out late, which was definitely a bummer. Aside from the minor problems we had, overall I loved this hotel and will almost certainly stay here again next time I’m in Denver! MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is designed impeccably, is in an excellent location, and the staff are incredibly friendly. Brian at the front was amazing! He upgraded our room free of charge since our room wasn’t ready when we got there. We got a corner suite (room 625), which was AMAZING. If you can, definitely stay in a corner room! Included in the price for this hotel: free beer/wine hour with appetizers from 5-6pm. Courtesy Tesla that drives you anywhere in a 2 mile radius of the hotel. Free admission to the museum of contemporary art (NOTE the museum is closed on Mondays). As for the kinks: we’d requested a food and water bowl for our dog which never came. Our phone in the room didn’t work. The courtesy Tesla wasn’t working the day we were there. Also, they refused to let us check out late, which was definitely a bummer. Aside from the minor problems we had, overall I loved this hotel and will almost certainly stay here again next time I’m in Denver! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r560092453-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>560092453</t>
+  </si>
+  <si>
+    <t>Bring your ear plugs - avoid booking a  "Train Room"</t>
+  </si>
+  <si>
+    <t>Hotel is gorgeous and totally Instagrammable (for those who like that sort of thing). The two issues I experienced during my business travel effected just that; my ability to work. 
+1) I had been booked in a "train room" - this means starting at 5am, a loud speaker that is steps away at the platform of Union Station (literally, a stone's throw) will start (and not stop) blaring. I called down at 5;04 and requested a new room. The staff reminded me that I was "booked in a train room" (by my travel agent, not me) but worked to get me in a room "further away". The ideal fix would have been to move to the opposite side of the hotel, however it seems like maybe they upcharge for that side (aka, a normal room with no train noise) since they didn't offer to do that. In my new room, I could still hear the train, it just wasn't as if I was sleeping on the platform. If I were to book here again, I would make 100 percent sure I was not at all facing Union Station.
+2) My other qualm: the "desk" (aka room-length wooden ledge) is an awkward height for the 2 chairs that are in the room. The desk chair is too short, so I moved the sitting chair over to my computer. Also too short. So I propped myself up with a bath towel. Seems...Hotel is gorgeous and totally Instagrammable (for those who like that sort of thing). The two issues I experienced during my business travel effected just that; my ability to work. 1) I had been booked in a "train room" - this means starting at 5am, a loud speaker that is steps away at the platform of Union Station (literally, a stone's throw) will start (and not stop) blaring. I called down at 5;04 and requested a new room. The staff reminded me that I was "booked in a train room" (by my travel agent, not me) but worked to get me in a room "further away". The ideal fix would have been to move to the opposite side of the hotel, however it seems like maybe they upcharge for that side (aka, a normal room with no train noise) since they didn't offer to do that. In my new room, I could still hear the train, it just wasn't as if I was sleeping on the platform. If I were to book here again, I would make 100 percent sure I was not at all facing Union Station.2) My other qualm: the "desk" (aka room-length wooden ledge) is an awkward height for the 2 chairs that are in the room. The desk chair is too short, so I moved the sitting chair over to my computer. Also too short. So I propped myself up with a bath towel. Seems like the architect didn't make a smart choice there. Otherwise, dreamy hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is gorgeous and totally Instagrammable (for those who like that sort of thing). The two issues I experienced during my business travel effected just that; my ability to work. 
+1) I had been booked in a "train room" - this means starting at 5am, a loud speaker that is steps away at the platform of Union Station (literally, a stone's throw) will start (and not stop) blaring. I called down at 5;04 and requested a new room. The staff reminded me that I was "booked in a train room" (by my travel agent, not me) but worked to get me in a room "further away". The ideal fix would have been to move to the opposite side of the hotel, however it seems like maybe they upcharge for that side (aka, a normal room with no train noise) since they didn't offer to do that. In my new room, I could still hear the train, it just wasn't as if I was sleeping on the platform. If I were to book here again, I would make 100 percent sure I was not at all facing Union Station.
+2) My other qualm: the "desk" (aka room-length wooden ledge) is an awkward height for the 2 chairs that are in the room. The desk chair is too short, so I moved the sitting chair over to my computer. Also too short. So I propped myself up with a bath towel. Seems...Hotel is gorgeous and totally Instagrammable (for those who like that sort of thing). The two issues I experienced during my business travel effected just that; my ability to work. 1) I had been booked in a "train room" - this means starting at 5am, a loud speaker that is steps away at the platform of Union Station (literally, a stone's throw) will start (and not stop) blaring. I called down at 5;04 and requested a new room. The staff reminded me that I was "booked in a train room" (by my travel agent, not me) but worked to get me in a room "further away". The ideal fix would have been to move to the opposite side of the hotel, however it seems like maybe they upcharge for that side (aka, a normal room with no train noise) since they didn't offer to do that. In my new room, I could still hear the train, it just wasn't as if I was sleeping on the platform. If I were to book here again, I would make 100 percent sure I was not at all facing Union Station.2) My other qualm: the "desk" (aka room-length wooden ledge) is an awkward height for the 2 chairs that are in the room. The desk chair is too short, so I moved the sitting chair over to my computer. Also too short. So I propped myself up with a bath towel. Seems like the architect didn't make a smart choice there. Otherwise, dreamy hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r557618028-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>557618028</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>First time staying in Denver and we weren’t sure what area to stay. Extremely happy we chose Kimpton Born! Convenient to Union Station with less then a 40 minute commute to the airport. Literally steps away. The free mall bus stops near the hotel. Wonderful restaurants and bars within walking distance. There’s also a Whole Foods and CVS down the block.All the staff were welcoming. Free wine and beer hour is a nice perk. Lobby sitting area is cozy. Check in was quick. Our room was spacious and comfortable. Plenty of closet space and drawers. Robes were super comfy. Loaner umbrella is located in the closet. Full size bottles of shampoo, conditioner and body wash in the shower. Private toilet. We would definitely stay here again and would recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>First time staying in Denver and we weren’t sure what area to stay. Extremely happy we chose Kimpton Born! Convenient to Union Station with less then a 40 minute commute to the airport. Literally steps away. The free mall bus stops near the hotel. Wonderful restaurants and bars within walking distance. There’s also a Whole Foods and CVS down the block.All the staff were welcoming. Free wine and beer hour is a nice perk. Lobby sitting area is cozy. Check in was quick. Our room was spacious and comfortable. Plenty of closet space and drawers. Robes were super comfy. Loaner umbrella is located in the closet. Full size bottles of shampoo, conditioner and body wash in the shower. Private toilet. We would definitely stay here again and would recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r556544788-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>556544788</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>Denver Great food, service and entertainment.</t>
+  </si>
+  <si>
+    <t>Everything was perfect in both our rooms and management was considerate. Late check out was easily accomplished and non-tedious. The accompanying restaurant was delightful and there are many lovely others nearby, the pastries were special.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r555977123-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>555977123</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Great new hotel, and it's all Kimpton</t>
+  </si>
+  <si>
+    <t>Beside being new, it is one of the most beautifully built and decorated hotels we have stayed in.The staff is great, the parking is expensive and train noise is almost non-existent.The views are LoDo Denver, it is minutes from Coors Field, Pepsi Center and the 16th Street Mall.A million places to eat!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r555377232-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>555377232</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Perfect Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here in January 2018. Great location steps away from Union Station and the light rail to the airport. Walking distance to great restaurants. Rooms are stylish but quiet and comfortable. Staff is unbelievably friendly and helpful. Wine hour at night; coffee available in the morning. Loved it. Would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r554398875-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>554398875</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel, But....</t>
+  </si>
+  <si>
+    <t>This is a very nice property.  Rooms are spacious, beds are comfortable, and the location is terrific.  The happy hour is really fun.  However, in both of our stays we had a significant problem that went unaddressed.  First time, our room wasn't ready at check-in time, which is 4 p.m., already what I would consider rather late. The staff offered no solution or assistance.   I had to sit in the lobby with my luggage for almost an hour before the room was ready.   Missed a family function because of it.  The second time the heat wasn't working properly and the lobby and restaurant were quite cold.  We had reservations at the restaurant, and were on our way to a show, so we didn't have time to find another place to eat. Very chilly dinner.  Both times, the staff was pleasant, but the attitude was, "Yeah, what can you do?"  And I got zero response from Kimpton or management when I described the situations on their survey form.  May try again.  May not.  Lots of other options.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>This is a very nice property.  Rooms are spacious, beds are comfortable, and the location is terrific.  The happy hour is really fun.  However, in both of our stays we had a significant problem that went unaddressed.  First time, our room wasn't ready at check-in time, which is 4 p.m., already what I would consider rather late. The staff offered no solution or assistance.   I had to sit in the lobby with my luggage for almost an hour before the room was ready.   Missed a family function because of it.  The second time the heat wasn't working properly and the lobby and restaurant were quite cold.  We had reservations at the restaurant, and were on our way to a show, so we didn't have time to find another place to eat. Very chilly dinner.  Both times, the staff was pleasant, but the attitude was, "Yeah, what can you do?"  And I got zero response from Kimpton or management when I described the situations on their survey form.  May try again.  May not.  Lots of other options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r553827989-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>553827989</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Classy, comfortable, good location</t>
+  </si>
+  <si>
+    <t>Reserved this hotel just before it opened last summer. Loved the brand newness of the place, the upscale comfort, the staff's willingness to go out of their way, and the walking distance proximity to the Amtrak station.  Also liked that it was just on the outskirts of downtown, just out of the chaos.   I had left my sweater in the rental car.   The hotel staff promptly drove me in their courtesy car to the car rental place so I could get it, and would not allow me to pay my way.  Check out the inside of the room closet---some cool unexplained inlay.   Enjoyed the afternoon get together with appetizers and drinks.   Lovely fireplace setting in lobby with various chairs for waiting or chatting, including a corner nook for about 6.  Restaurant on premises. Close walk to free bus and stores to hop off and on to in shopping district.    Can take bus to Federal Reserve money museum.  Nice walk to cool bridge and river walk.  Look forward to coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Reserved this hotel just before it opened last summer. Loved the brand newness of the place, the upscale comfort, the staff's willingness to go out of their way, and the walking distance proximity to the Amtrak station.  Also liked that it was just on the outskirts of downtown, just out of the chaos.   I had left my sweater in the rental car.   The hotel staff promptly drove me in their courtesy car to the car rental place so I could get it, and would not allow me to pay my way.  Check out the inside of the room closet---some cool unexplained inlay.   Enjoyed the afternoon get together with appetizers and drinks.   Lovely fireplace setting in lobby with various chairs for waiting or chatting, including a corner nook for about 6.  Restaurant on premises. Close walk to free bus and stores to hop off and on to in shopping district.    Can take bus to Federal Reserve money museum.  Nice walk to cool bridge and river walk.  Look forward to coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r553370495-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>553370495</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>Weekend away</t>
+  </si>
+  <si>
+    <t>We booked on Hotels.com I believe and obtained the room for a great rate and we were surprised at how nice this place was ONCE we located it. Google maps not current with the place being so new, and construction made it hard to get to the location, however this was not the hotels fault. 
+The staff was friendly, although the valet didn't know we were leaving our vehicle. Communication, I will take the heat, I was not clear that I was leaving it.
+When we decided to have breakfast downstairs we were blown away with an excellent breakfast! Thats a review on its own!
+The room was very nice and we enjoyed the stay.
+When I left I had charged the room for the breakfast and did not ask for a receipt. Mistake.
+When I received the charge it was for $198. So I called and left a msg for someone to call me and never heard back. So I called back and spoke to a young woman, polite and asked her to explain the bill:
+$50 for breakfast appx
+$50 for Valet per night x 2 WHAT?!??!
+And that left appx $50 and found they charge a 'hotel/resort' fee for coffee, juice, water, use of the gym, etc. WOW! The first I had heard of this. NOT cool. This should have been explained up front along with the valet fee which was way too high.
+TO finish up...We booked on Hotels.com I believe and obtained the room for a great rate and we were surprised at how nice this place was ONCE we located it. Google maps not current with the place being so new, and construction made it hard to get to the location, however this was not the hotels fault. The staff was friendly, although the valet didn't know we were leaving our vehicle. Communication, I will take the heat, I was not clear that I was leaving it.When we decided to have breakfast downstairs we were blown away with an excellent breakfast! Thats a review on its own!The room was very nice and we enjoyed the stay.When I left I had charged the room for the breakfast and did not ask for a receipt. Mistake.When I received the charge it was for $198. So I called and left a msg for someone to call me and never heard back. So I called back and spoke to a young woman, polite and asked her to explain the bill:$50 for breakfast appx$50 for Valet per night x 2 WHAT?!??!And that left appx $50 and found they charge a 'hotel/resort' fee for coffee, juice, water, use of the gym, etc. WOW! The first I had heard of this. NOT cool. This should have been explained up front along with the valet fee which was way too high.TO finish up out birthday weekend get away review, we would not stay here again due to the inflated fees. I don;t mind paying for such items, just felt they should have been explained. And yes, I could and should have asked.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked on Hotels.com I believe and obtained the room for a great rate and we were surprised at how nice this place was ONCE we located it. Google maps not current with the place being so new, and construction made it hard to get to the location, however this was not the hotels fault. 
+The staff was friendly, although the valet didn't know we were leaving our vehicle. Communication, I will take the heat, I was not clear that I was leaving it.
+When we decided to have breakfast downstairs we were blown away with an excellent breakfast! Thats a review on its own!
+The room was very nice and we enjoyed the stay.
+When I left I had charged the room for the breakfast and did not ask for a receipt. Mistake.
+When I received the charge it was for $198. So I called and left a msg for someone to call me and never heard back. So I called back and spoke to a young woman, polite and asked her to explain the bill:
+$50 for breakfast appx
+$50 for Valet per night x 2 WHAT?!??!
+And that left appx $50 and found they charge a 'hotel/resort' fee for coffee, juice, water, use of the gym, etc. WOW! The first I had heard of this. NOT cool. This should have been explained up front along with the valet fee which was way too high.
+TO finish up...We booked on Hotels.com I believe and obtained the room for a great rate and we were surprised at how nice this place was ONCE we located it. Google maps not current with the place being so new, and construction made it hard to get to the location, however this was not the hotels fault. The staff was friendly, although the valet didn't know we were leaving our vehicle. Communication, I will take the heat, I was not clear that I was leaving it.When we decided to have breakfast downstairs we were blown away with an excellent breakfast! Thats a review on its own!The room was very nice and we enjoyed the stay.When I left I had charged the room for the breakfast and did not ask for a receipt. Mistake.When I received the charge it was for $198. So I called and left a msg for someone to call me and never heard back. So I called back and spoke to a young woman, polite and asked her to explain the bill:$50 for breakfast appx$50 for Valet per night x 2 WHAT?!??!And that left appx $50 and found they charge a 'hotel/resort' fee for coffee, juice, water, use of the gym, etc. WOW! The first I had heard of this. NOT cool. This should have been explained up front along with the valet fee which was way too high.TO finish up out birthday weekend get away review, we would not stay here again due to the inflated fees. I don;t mind paying for such items, just felt they should have been explained. And yes, I could and should have asked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r549393494-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>549393494</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Lovely experience</t>
+  </si>
+  <si>
+    <t>So we were hesitant - will the Born be as good as the Monaco?  The results are in....love the hotel and the restaurant/bar.  Last time we were at the Monaco we received a fantastic upgrade, so the comparison was hard.  Ben and Kristle solidified our choice for our go to place in Denver.  We had a Wonderful evening at Citizen Rail.  Kristle is phenomenal!  She made us feel welcomed and like friends.  She explained the food and had terrific recommendations.  We really enjoyed having a meal with her.  Ben in the bar is fantastic!!  He is friendly and fun.  He made a top notch Caiporinha.  It was as good, if not better, than the ones I had in Brazil.  Bravo Ben.  I can’t find them that good in the states.  Highly recommend Citizen Rail, Kristle and Ben.  A shout out to Alex and Chris too.  They were great in the bar, as well.  We will be back for our summer trip to Denver!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>So we were hesitant - will the Born be as good as the Monaco?  The results are in....love the hotel and the restaurant/bar.  Last time we were at the Monaco we received a fantastic upgrade, so the comparison was hard.  Ben and Kristle solidified our choice for our go to place in Denver.  We had a Wonderful evening at Citizen Rail.  Kristle is phenomenal!  She made us feel welcomed and like friends.  She explained the food and had terrific recommendations.  We really enjoyed having a meal with her.  Ben in the bar is fantastic!!  He is friendly and fun.  He made a top notch Caiporinha.  It was as good, if not better, than the ones I had in Brazil.  Bravo Ben.  I can’t find them that good in the states.  Highly recommend Citizen Rail, Kristle and Ben.  A shout out to Alex and Chris too.  They were great in the bar, as well.  We will be back for our summer trip to Denver!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r546626966-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>546626966</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, but missing some key amenities.</t>
+  </si>
+  <si>
+    <t>Nice new hotel and very conveniently located near Union Station. Rooms are a nice size, large comfortable bed, large tv and very nice shower. But, there is no coffee service in the room which is critical to me (service is in the lobby). If you want a coffee pot, you should ask for it in advance as they may not have one available upon your arrival.  I did ask for and received a tea kettle within 10 minutes, but no teas were provided the following day (or creamers) after I used up the one black tea bag given. Chalking that up to not being used to providing the service in the room, so be clear about what you want. Also wished there was a cost list for the mini-bar and there are limited amenities. While there is a list of items they will provide, certain things I expect to be there right when I need it, such as a shower cap.  Lastly, the door staff did not assist either entering or departing, and the door was impossible to open with the strong wind!  I will gladly visit again because the space is nice, but will be better prepared for what I want in the room and expect by way of service, which hopefully will improve with experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice new hotel and very conveniently located near Union Station. Rooms are a nice size, large comfortable bed, large tv and very nice shower. But, there is no coffee service in the room which is critical to me (service is in the lobby). If you want a coffee pot, you should ask for it in advance as they may not have one available upon your arrival.  I did ask for and received a tea kettle within 10 minutes, but no teas were provided the following day (or creamers) after I used up the one black tea bag given. Chalking that up to not being used to providing the service in the room, so be clear about what you want. Also wished there was a cost list for the mini-bar and there are limited amenities. While there is a list of items they will provide, certain things I expect to be there right when I need it, such as a shower cap.  Lastly, the door staff did not assist either entering or departing, and the door was impossible to open with the strong wind!  I will gladly visit again because the space is nice, but will be better prepared for what I want in the room and expect by way of service, which hopefully will improve with experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r546489614-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>546489614</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovely hotel, staff needs some training </t>
+  </si>
+  <si>
+    <t>My husband and I stayed here to attend a Christmas party. We loved the unique style of the hotel and were pleased with how clean it was, but the valet staff and housekeeping staff need some guest service training. The valet parking was disorganized, and unattentive. Doors were not opened for either my husband or I, and no one helped get bags in or out of the car. Housekeeping came to the door shortly after we checked in, and seemed shocked when we answered the door. No apologies or even any reason given why they there. I would recommend the hotel, but don’t expect 4 star service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r544826650-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>544826650</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Denver Stay </t>
+  </si>
+  <si>
+    <t>Great, great spot! Hotel opened in the summer of 2017 and I visited first weekend of September. So it was brand spankin new! The staff however flowed like they’d been there forever.  Unfortunately as an Inner Circle I expected an upgrade and welcome, neither which happened which was a bummer. 
+First visit I drove up and second I arrived by train which was super easy from the airport for just $9.  By Car the approach was a little tricky with some construction and one way streets but once in it’s an enclosed/covered driveway. Valet was quick, as was checkin. Decor was clean simple and warm at the same time. It was a bright lodge feeling. The rooms were a little tight but enough room for just two of us. We over looked the Union Station which was really nice and cozy. I spent a couple hours doing work bundled by the window overlooking the station and it was great. There was all the expected Kimpton pluses...great Linens, mini bar, robes, yoga mats (although in standard room no space for yoga) Shower toiletries, etc. One semi silly thing that made an impression as a frequent traveler, was the shower knob was close to the shower door so you didn’t need to step all the way in to turn on the water...good job Kimpton. Pressure was eh, but not terrible. 
+I didn’t get a chance to eat at the hotel . It’s...Great, great spot! Hotel opened in the summer of 2017 and I visited first weekend of September. So it was brand spankin new! The staff however flowed like they’d been there forever.  Unfortunately as an Inner Circle I expected an upgrade and welcome, neither which happened which was a bummer. First visit I drove up and second I arrived by train which was super easy from the airport for just $9.  By Car the approach was a little tricky with some construction and one way streets but once in it’s an enclosed/covered driveway. Valet was quick, as was checkin. Decor was clean simple and warm at the same time. It was a bright lodge feeling. The rooms were a little tight but enough room for just two of us. We over looked the Union Station which was really nice and cozy. I spent a couple hours doing work bundled by the window overlooking the station and it was great. There was all the expected Kimpton pluses...great Linens, mini bar, robes, yoga mats (although in standard room no space for yoga) Shower toiletries, etc. One semi silly thing that made an impression as a frequent traveler, was the shower knob was close to the shower door so you didn’t need to step all the way in to turn on the water...good job Kimpton. Pressure was eh, but not terrible. I didn’t get a chance to eat at the hotel . It’s a quick walk to tons of great places to eat made more sense to wander than eat in the hotel, HOWEVER, several friends who are local eat there often. My daughter left Denver but I would 100% stay here and refer any friends to stay when in town. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great, great spot! Hotel opened in the summer of 2017 and I visited first weekend of September. So it was brand spankin new! The staff however flowed like they’d been there forever.  Unfortunately as an Inner Circle I expected an upgrade and welcome, neither which happened which was a bummer. 
+First visit I drove up and second I arrived by train which was super easy from the airport for just $9.  By Car the approach was a little tricky with some construction and one way streets but once in it’s an enclosed/covered driveway. Valet was quick, as was checkin. Decor was clean simple and warm at the same time. It was a bright lodge feeling. The rooms were a little tight but enough room for just two of us. We over looked the Union Station which was really nice and cozy. I spent a couple hours doing work bundled by the window overlooking the station and it was great. There was all the expected Kimpton pluses...great Linens, mini bar, robes, yoga mats (although in standard room no space for yoga) Shower toiletries, etc. One semi silly thing that made an impression as a frequent traveler, was the shower knob was close to the shower door so you didn’t need to step all the way in to turn on the water...good job Kimpton. Pressure was eh, but not terrible. 
+I didn’t get a chance to eat at the hotel . It’s...Great, great spot! Hotel opened in the summer of 2017 and I visited first weekend of September. So it was brand spankin new! The staff however flowed like they’d been there forever.  Unfortunately as an Inner Circle I expected an upgrade and welcome, neither which happened which was a bummer. First visit I drove up and second I arrived by train which was super easy from the airport for just $9.  By Car the approach was a little tricky with some construction and one way streets but once in it’s an enclosed/covered driveway. Valet was quick, as was checkin. Decor was clean simple and warm at the same time. It was a bright lodge feeling. The rooms were a little tight but enough room for just two of us. We over looked the Union Station which was really nice and cozy. I spent a couple hours doing work bundled by the window overlooking the station and it was great. There was all the expected Kimpton pluses...great Linens, mini bar, robes, yoga mats (although in standard room no space for yoga) Shower toiletries, etc. One semi silly thing that made an impression as a frequent traveler, was the shower knob was close to the shower door so you didn’t need to step all the way in to turn on the water...good job Kimpton. Pressure was eh, but not terrible. I didn’t get a chance to eat at the hotel . It’s a quick walk to tons of great places to eat made more sense to wander than eat in the hotel, HOWEVER, several friends who are local eat there often. My daughter left Denver but I would 100% stay here and refer any friends to stay when in town. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r544449298-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>544449298</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>Great new Hotel</t>
+  </si>
+  <si>
+    <t>This is a very new hotel, in a revitalized area of town. Google street view from October of 2016 shows the building under construction, but it is very complete now. The floor I stayed on still had the fresh cut wood smell from the doors and trim of the building. The whole place was very clean and actually quite comfortable. The bathroom was very large, the service was great, but what I liked best of all was the location. The area around the hotel is very walkable, and there are a huge number of places to eat nearby. I had rented a car on my trip so that I could go to Estes Park, but once I got to Denver and found that the train to the Airport was less than 100 yards away, I turned my car in early. The free bus going up 16th street took me close enough to the convention center that you really didn't need a car at all. In addition, parking in the area is really expensive. If I have any complaints, and they are very minor, it is that the announcements for the trains at Union station are a bit loud, even through the non-opening windows, and the lighting in the room could be a little brighter.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very new hotel, in a revitalized area of town. Google street view from October of 2016 shows the building under construction, but it is very complete now. The floor I stayed on still had the fresh cut wood smell from the doors and trim of the building. The whole place was very clean and actually quite comfortable. The bathroom was very large, the service was great, but what I liked best of all was the location. The area around the hotel is very walkable, and there are a huge number of places to eat nearby. I had rented a car on my trip so that I could go to Estes Park, but once I got to Denver and found that the train to the Airport was less than 100 yards away, I turned my car in early. The free bus going up 16th street took me close enough to the convention center that you really didn't need a car at all. In addition, parking in the area is really expensive. If I have any complaints, and they are very minor, it is that the announcements for the trains at Union station are a bit loud, even through the non-opening windows, and the lighting in the room could be a little brighter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r544419515-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>544419515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice new hotel in a great location but the staff needs training </t>
+  </si>
+  <si>
+    <t>The Hotel Born is a nice hotel in a great location. One problem - it is clear that there has been very little training of the staff. I️ hung the room service tag on my door by 2:00am as instructed for a 6:30am delivery. When I️ opened the door at 6:15 am much to my surprise no one had picked it up. Luckily I️ was up early and had time for breakfast in the restaurant, which was very good. When I️ told the front desk agent about it they could have cared less. I️ had a corner room which was quiet and well appointed although pretty small. All in all a nice hotel. Hopefully they do some training so it is on par with other Kimpton properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Hotel Born is a nice hotel in a great location. One problem - it is clear that there has been very little training of the staff. I️ hung the room service tag on my door by 2:00am as instructed for a 6:30am delivery. When I️ opened the door at 6:15 am much to my surprise no one had picked it up. Luckily I️ was up early and had time for breakfast in the restaurant, which was very good. When I️ told the front desk agent about it they could have cared less. I️ had a corner room which was quiet and well appointed although pretty small. All in all a nice hotel. Hopefully they do some training so it is on par with other Kimpton properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r542058916-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>542058916</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Missed the mark</t>
+  </si>
+  <si>
+    <t>Contemporary decor &amp; rooms very nice - $50 valet fee a night excessive - and customer service poor. Had several issues they reluctantly apologized for. In addition, it was my wife's birthday - and they never even acknowledged or celebrated the fact. I have been to many high end hotels and they really had the potential to get it right - and simply did not.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r541366827-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>541366827</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>A bit pricey but really nice</t>
+  </si>
+  <si>
+    <t>I really like the atmosphere of this hotel which kind of feels like a luxurious cabin.Everything is well decorated and is of high quality.The bed is perfect and so are the pillows that fit any kind of necks (important for me).Wine available in the lobby at night is a nice gesture.The gym is also pretty nicely equipped with brand new equipments.I would only complain about the internet which is not free (although if you ask they will likely give you a coupon) and the lack of breakfast served.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r541190583-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>541190583</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Won’t be a secret for long!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome hotel from the decorating to the cocktails to the service!  Loved the town car service perk and we will miss Brian at the front desk!  We want him to come home w us and be our best friend :) They had great suggestions for dinner and breakfast (Rioja and Sassafrass).  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r540805276-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>540805276</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Horrible service, cheap furnishings.</t>
+  </si>
+  <si>
+    <t>Worst experience at a hotel - Furniture is falling apart, no desk in the room like in the photos, TV doesn't work spent hours working w maintenance to fix it. Called down to front desk - asked me to hold 3 separate times and argued with me about getting a manager. Manager came to the line and never apologized. Said they are out of rooms so can't transfer me and there is nothing he can do. A Marriott or Hilton would NEVER treat a customer this way. If you're going to spend this kind of money do not stay here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r540278122-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>540278122</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Great location, even better service recovery</t>
+  </si>
+  <si>
+    <t>Love this hotel, great location and warm inviting rooms. Much more comfortable than the Oxford, Maven, or Crawford. They also have good service recovery. My wife and I had an issue one weekend with the valet. Kyle the valet manager and Joseph the Assistant GM were both attentive and helpful. I'll stay at this hotel any time I can.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r540181104-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>540181104</t>
+  </si>
+  <si>
+    <t>Fabulous!</t>
+  </si>
+  <si>
+    <t>Kimpton hotels never cease to amaze me. The hotel born is a beautifully modern hotel with some rustic touches. The room we had was very spacious and I️ loved the bathroom with its beautiful tiling to the lighted mirror over the sink. I️ can’t say enough wonderful things about the hotel from the quality of service to the rooms. It’s also just a few steps away from Union Station and near the RTD free mall ride bus into downtown Denver. There are lots of wonderful restaurant options as well. Kimpton is my favorite hotel brand and Born is a gorgeous addition to Kimpton.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r539531590-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>539531590</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Good and Bad - Depending ...</t>
+  </si>
+  <si>
+    <t>We stayed there this past week in a split stay, 3 nights on the 8th floor with a view of the office building across the street, and then after a two day trip to the other side of the state, we returned for one night and got a corner room overlooking Union Station plaza. 
+Our first stay was marvelous. Kyle at the front desk could not have been better and made us feel instantly welcome. 
+The room we had on the 8th floor had a view of the new office building across the street, and friends of mine who work in that building reminded me to make sure the curtains were closed because they have an unobstructed view right into the rooms of the Born. 
+We were very pleased with our first room, although they really need an on/off switch for the very bright night-light that is in the bathroom - it is obnoxiously bright. The shower and the  shampoo/body wash/conditioner they include are marvelous. Our sink drain was a bit slow, but otherwise we enjoyed the stay. 
+Our second one night stay was a different story, almost like a completely different hotel. We checked in to a 4th floor corner room overlooking the train station - actually a better view in my opinion. The previous occupant had removed a light bulb, which was immediately replaced. The room was chilly, and the heater ran all night long just trying to...We stayed there this past week in a split stay, 3 nights on the 8th floor with a view of the office building across the street, and then after a two day trip to the other side of the state, we returned for one night and got a corner room overlooking Union Station plaza. Our first stay was marvelous. Kyle at the front desk could not have been better and made us feel instantly welcome. The room we had on the 8th floor had a view of the new office building across the street, and friends of mine who work in that building reminded me to make sure the curtains were closed because they have an unobstructed view right into the rooms of the Born. We were very pleased with our first room, although they really need an on/off switch for the very bright night-light that is in the bathroom - it is obnoxiously bright. The shower and the  shampoo/body wash/conditioner they include are marvelous. Our sink drain was a bit slow, but otherwise we enjoyed the stay. Our second one night stay was a different story, almost like a completely different hotel. We checked in to a 4th floor corner room overlooking the train station - actually a better view in my opinion. The previous occupant had removed a light bulb, which was immediately replaced. The room was chilly, and the heater ran all night long just trying to maintain the 70 degrees we set it at. (OK, we're Floridians). The shower drain didn't. When we checked out in the morning just prior to 5:30, the reception clerk downstairs was uncommunicative at best, seemed to be uninterested in our report about the shower drain, and was about 1 degree from being actually rude. He was a young kid, and apparently not a morning person.They pride themselves on the 700 pieces of art from local artists scattered around. Most of it ...I'm unimpressed - it's heavily slanted towards the modern expressionism stuff which ..well, at least most of it is colorful. The hallways are stunning - lots of knotty pine and bare concrete - which actually go good together. The rooms are the same - bare concrete with warm knotty pine. The bathroom is cavernous - and actually could use some sound proofing - every noise you make echo's and is amplified - so hopefully you share your room with someone who doesn't care. They make killer drinks downstairs - but the bar and restaurant are very pricey - and happy hour in the bar is so busy with the local millinials stopping by that it's difficult to hold a conversation without yelling. Breakfast and Lunch are quieter. Food and drink prices are just this side of outrageous, but it's very, very good. Yes, I'd stay again - but your experience may vary. It's a brand new place and they still have a bug or too that they are obviously working on. Except for the shower drain that wouldn't drain and the desk clerk on our last morning there, I'd rate it as a great experience that I'd do again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed there this past week in a split stay, 3 nights on the 8th floor with a view of the office building across the street, and then after a two day trip to the other side of the state, we returned for one night and got a corner room overlooking Union Station plaza. 
+Our first stay was marvelous. Kyle at the front desk could not have been better and made us feel instantly welcome. 
+The room we had on the 8th floor had a view of the new office building across the street, and friends of mine who work in that building reminded me to make sure the curtains were closed because they have an unobstructed view right into the rooms of the Born. 
+We were very pleased with our first room, although they really need an on/off switch for the very bright night-light that is in the bathroom - it is obnoxiously bright. The shower and the  shampoo/body wash/conditioner they include are marvelous. Our sink drain was a bit slow, but otherwise we enjoyed the stay. 
+Our second one night stay was a different story, almost like a completely different hotel. We checked in to a 4th floor corner room overlooking the train station - actually a better view in my opinion. The previous occupant had removed a light bulb, which was immediately replaced. The room was chilly, and the heater ran all night long just trying to...We stayed there this past week in a split stay, 3 nights on the 8th floor with a view of the office building across the street, and then after a two day trip to the other side of the state, we returned for one night and got a corner room overlooking Union Station plaza. Our first stay was marvelous. Kyle at the front desk could not have been better and made us feel instantly welcome. The room we had on the 8th floor had a view of the new office building across the street, and friends of mine who work in that building reminded me to make sure the curtains were closed because they have an unobstructed view right into the rooms of the Born. We were very pleased with our first room, although they really need an on/off switch for the very bright night-light that is in the bathroom - it is obnoxiously bright. The shower and the  shampoo/body wash/conditioner they include are marvelous. Our sink drain was a bit slow, but otherwise we enjoyed the stay. Our second one night stay was a different story, almost like a completely different hotel. We checked in to a 4th floor corner room overlooking the train station - actually a better view in my opinion. The previous occupant had removed a light bulb, which was immediately replaced. The room was chilly, and the heater ran all night long just trying to maintain the 70 degrees we set it at. (OK, we're Floridians). The shower drain didn't. When we checked out in the morning just prior to 5:30, the reception clerk downstairs was uncommunicative at best, seemed to be uninterested in our report about the shower drain, and was about 1 degree from being actually rude. He was a young kid, and apparently not a morning person.They pride themselves on the 700 pieces of art from local artists scattered around. Most of it ...I'm unimpressed - it's heavily slanted towards the modern expressionism stuff which ..well, at least most of it is colorful. The hallways are stunning - lots of knotty pine and bare concrete - which actually go good together. The rooms are the same - bare concrete with warm knotty pine. The bathroom is cavernous - and actually could use some sound proofing - every noise you make echo's and is amplified - so hopefully you share your room with someone who doesn't care. They make killer drinks downstairs - but the bar and restaurant are very pricey - and happy hour in the bar is so busy with the local millinials stopping by that it's difficult to hold a conversation without yelling. Breakfast and Lunch are quieter. Food and drink prices are just this side of outrageous, but it's very, very good. Yes, I'd stay again - but your experience may vary. It's a brand new place and they still have a bug or too that they are obviously working on. Except for the shower drain that wouldn't drain and the desk clerk on our last morning there, I'd rate it as a great experience that I'd do again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r539228135-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>539228135</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Beautiful, Accommodating and in a Perfect Location</t>
+  </si>
+  <si>
+    <t>My friends and I are now HUGE fans of the Kimpton Born in Downtown Denver! 
+Location-wise, this could not have been more convenient for those who want to explore LoDo, Union Station, Cherry Creek, the Highlands, etc. The Born is completely central, and even offers complimentary rides to venues that are a little too far to walk to! 
+The ambiance/decor could not have been more perfect for us either. The hotel is brand new, and offers the best mixture of cozy, trendy and upscale. Their lobby isn't only beautiful, but it also offers two very comfortable and cute spots to spend time working, lounging, or chatting with friends/other guests. This pairs nicely with their FREE coffee in the mornings, and wine/appetizers in the evenings!
+The rooms were also nothing less than perfection. We rented three of them with two queen beds, and were just fine with four people in each room. Everything was very clean, comfortable, spacious and again- very tastefully decorated. 
+As for the staff, they were unbelievably friendly and accommodating. We felt more-than-welcomed...despite being a bunch of women on a bachelorette trip! Rather than seeing us as a nuisance/party group, the staff at the Born went out of their way to make sure we were happy and well-taken-care-of. From heartfelt greetings each morning and night, to extra room keys, bottles of wine, and rides to our destination- they truly took excellent care of us. 
+If you are torn...My friends and I are now HUGE fans of the Kimpton Born in Downtown Denver! Location-wise, this could not have been more convenient for those who want to explore LoDo, Union Station, Cherry Creek, the Highlands, etc. The Born is completely central, and even offers complimentary rides to venues that are a little too far to walk to! The ambiance/decor could not have been more perfect for us either. The hotel is brand new, and offers the best mixture of cozy, trendy and upscale. Their lobby isn't only beautiful, but it also offers two very comfortable and cute spots to spend time working, lounging, or chatting with friends/other guests. This pairs nicely with their FREE coffee in the mornings, and wine/appetizers in the evenings!The rooms were also nothing less than perfection. We rented three of them with two queen beds, and were just fine with four people in each room. Everything was very clean, comfortable, spacious and again- very tastefully decorated. As for the staff, they were unbelievably friendly and accommodating. We felt more-than-welcomed...despite being a bunch of women on a bachelorette trip! Rather than seeing us as a nuisance/party group, the staff at the Born went out of their way to make sure we were happy and well-taken-care-of. From heartfelt greetings each morning and night, to extra room keys, bottles of wine, and rides to our destination- they truly took excellent care of us. If you are torn between a little boutique hotel, or really any other hotel in downtown for that matter, the Kimpton is 100% the way to go! You will likely pay the same price, if not more at the other spots, and it's hard to believe they could top what the Kimpton has to offer!Cheers!MoreShow less</t>
+  </si>
+  <si>
+    <t>My friends and I are now HUGE fans of the Kimpton Born in Downtown Denver! 
+Location-wise, this could not have been more convenient for those who want to explore LoDo, Union Station, Cherry Creek, the Highlands, etc. The Born is completely central, and even offers complimentary rides to venues that are a little too far to walk to! 
+The ambiance/decor could not have been more perfect for us either. The hotel is brand new, and offers the best mixture of cozy, trendy and upscale. Their lobby isn't only beautiful, but it also offers two very comfortable and cute spots to spend time working, lounging, or chatting with friends/other guests. This pairs nicely with their FREE coffee in the mornings, and wine/appetizers in the evenings!
+The rooms were also nothing less than perfection. We rented three of them with two queen beds, and were just fine with four people in each room. Everything was very clean, comfortable, spacious and again- very tastefully decorated. 
+As for the staff, they were unbelievably friendly and accommodating. We felt more-than-welcomed...despite being a bunch of women on a bachelorette trip! Rather than seeing us as a nuisance/party group, the staff at the Born went out of their way to make sure we were happy and well-taken-care-of. From heartfelt greetings each morning and night, to extra room keys, bottles of wine, and rides to our destination- they truly took excellent care of us. 
+If you are torn...My friends and I are now HUGE fans of the Kimpton Born in Downtown Denver! Location-wise, this could not have been more convenient for those who want to explore LoDo, Union Station, Cherry Creek, the Highlands, etc. The Born is completely central, and even offers complimentary rides to venues that are a little too far to walk to! The ambiance/decor could not have been more perfect for us either. The hotel is brand new, and offers the best mixture of cozy, trendy and upscale. Their lobby isn't only beautiful, but it also offers two very comfortable and cute spots to spend time working, lounging, or chatting with friends/other guests. This pairs nicely with their FREE coffee in the mornings, and wine/appetizers in the evenings!The rooms were also nothing less than perfection. We rented three of them with two queen beds, and were just fine with four people in each room. Everything was very clean, comfortable, spacious and again- very tastefully decorated. As for the staff, they were unbelievably friendly and accommodating. We felt more-than-welcomed...despite being a bunch of women on a bachelorette trip! Rather than seeing us as a nuisance/party group, the staff at the Born went out of their way to make sure we were happy and well-taken-care-of. From heartfelt greetings each morning and night, to extra room keys, bottles of wine, and rides to our destination- they truly took excellent care of us. If you are torn between a little boutique hotel, or really any other hotel in downtown for that matter, the Kimpton is 100% the way to go! You will likely pay the same price, if not more at the other spots, and it's hard to believe they could top what the Kimpton has to offer!Cheers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r538928591-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>538928591</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Wow!</t>
+  </si>
+  <si>
+    <t>I'm embarrassed to admit that I have never heard of the Kimpton Hotel chain until we started looking at hotels to stay in the Lodo section of Denver. This hotel is brand new and their service exceeded every expectation. Everyone was super friendly and they remembered your name after one meeting. (Nick on the valet staff!) The location was amazing, steps from Union Station and the train from the airport, as well as the 16th street free shuttle. Also, convenient to the Commons Park and great running trails. Loved the happy hour and the rooms were well appointed and incredibly soundproofed. I highly recommend this hotel for anyone staying in Downtown Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm embarrassed to admit that I have never heard of the Kimpton Hotel chain until we started looking at hotels to stay in the Lodo section of Denver. This hotel is brand new and their service exceeded every expectation. Everyone was super friendly and they remembered your name after one meeting. (Nick on the valet staff!) The location was amazing, steps from Union Station and the train from the airport, as well as the 16th street free shuttle. Also, convenient to the Commons Park and great running trails. Loved the happy hour and the rooms were well appointed and incredibly soundproofed. I highly recommend this hotel for anyone staying in Downtown Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r537265228-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>537265228</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Service not ready for prime time</t>
+  </si>
+  <si>
+    <t>My wife and I are big fans of Kimpton Hotels and have stayed in many over a number of years. We love the friendly boutique hotel atmosphere, the unique rooms, the Kimpton Karma program, the evening wine hour and many other aspects of the chain. With this in mind, we were excited to learn that the Hotel Born was opening at Union Station in Denver, very convenient for visiting family. We stayed there this past weekend and found the room and the facility, itself, up to the Kimpton standards we have come to expect. 
+Unfortunately, the service was far from satisfactory. During our two night stay, the hotel failed in two critical areas:
+•	I had read previous comments on tripadvisor about the shower drainage issues and the response from the hotel's General Manager over a month ago was that the problem had been resolved. I was therefore shocked to find that the issue was still present in our room and we had to take two hurried and unpleasant showers. Yes, this was fixed after we pointed it out, but I view this as a service issue as the General Manager is either misleading readers of these comments or his staff is misleading him. It seems that they are just waiting for someone to complain before fixing the problem.
+•	Equally poor during our stay was that our room was not serviced after the first night. We first discovered the...My wife and I are big fans of Kimpton Hotels and have stayed in many over a number of years. We love the friendly boutique hotel atmosphere, the unique rooms, the Kimpton Karma program, the evening wine hour and many other aspects of the chain. With this in mind, we were excited to learn that the Hotel Born was opening at Union Station in Denver, very convenient for visiting family. We stayed there this past weekend and found the room and the facility, itself, up to the Kimpton standards we have come to expect. Unfortunately, the service was far from satisfactory. During our two night stay, the hotel failed in two critical areas:•	I had read previous comments on tripadvisor about the shower drainage issues and the response from the hotel's General Manager over a month ago was that the problem had been resolved. I was therefore shocked to find that the issue was still present in our room and we had to take two hurried and unpleasant showers. Yes, this was fixed after we pointed it out, but I view this as a service issue as the General Manager is either misleading readers of these comments or his staff is misleading him. It seems that they are just waiting for someone to complain before fixing the problem.•	Equally poor during our stay was that our room was not serviced after the first night. We first discovered the oversight on returning to the hotel mid afternoon. We informed the front desk staff, who said that they would make sure that it was taken care of. However, nothing was done until after we returned that night to find the room still unserviced. Having to tell the staff once that the room needs to be made up is poor service; having to tell them twice and finally getting the room serviced at 11:00 PM is simply unacceptable.I understand that the Kimpton chain was purchased by IHG in 2014. I hope this is not a sign of things slipping under the new management.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>My wife and I are big fans of Kimpton Hotels and have stayed in many over a number of years. We love the friendly boutique hotel atmosphere, the unique rooms, the Kimpton Karma program, the evening wine hour and many other aspects of the chain. With this in mind, we were excited to learn that the Hotel Born was opening at Union Station in Denver, very convenient for visiting family. We stayed there this past weekend and found the room and the facility, itself, up to the Kimpton standards we have come to expect. 
+Unfortunately, the service was far from satisfactory. During our two night stay, the hotel failed in two critical areas:
+•	I had read previous comments on tripadvisor about the shower drainage issues and the response from the hotel's General Manager over a month ago was that the problem had been resolved. I was therefore shocked to find that the issue was still present in our room and we had to take two hurried and unpleasant showers. Yes, this was fixed after we pointed it out, but I view this as a service issue as the General Manager is either misleading readers of these comments or his staff is misleading him. It seems that they are just waiting for someone to complain before fixing the problem.
+•	Equally poor during our stay was that our room was not serviced after the first night. We first discovered the...My wife and I are big fans of Kimpton Hotels and have stayed in many over a number of years. We love the friendly boutique hotel atmosphere, the unique rooms, the Kimpton Karma program, the evening wine hour and many other aspects of the chain. With this in mind, we were excited to learn that the Hotel Born was opening at Union Station in Denver, very convenient for visiting family. We stayed there this past weekend and found the room and the facility, itself, up to the Kimpton standards we have come to expect. Unfortunately, the service was far from satisfactory. During our two night stay, the hotel failed in two critical areas:•	I had read previous comments on tripadvisor about the shower drainage issues and the response from the hotel's General Manager over a month ago was that the problem had been resolved. I was therefore shocked to find that the issue was still present in our room and we had to take two hurried and unpleasant showers. Yes, this was fixed after we pointed it out, but I view this as a service issue as the General Manager is either misleading readers of these comments or his staff is misleading him. It seems that they are just waiting for someone to complain before fixing the problem.•	Equally poor during our stay was that our room was not serviced after the first night. We first discovered the oversight on returning to the hotel mid afternoon. We informed the front desk staff, who said that they would make sure that it was taken care of. However, nothing was done until after we returned that night to find the room still unserviced. Having to tell the staff once that the room needs to be made up is poor service; having to tell them twice and finally getting the room serviced at 11:00 PM is simply unacceptable.I understand that the Kimpton chain was purchased by IHG in 2014. I hope this is not a sign of things slipping under the new management.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r536741328-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>536741328</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel with a few kinks to work out</t>
+  </si>
+  <si>
+    <t>Let me start by saying that overall I really liked this hotel.  It has the feel of an upscale lodge with lots of light wood combined with some nice modern touches.  The rooms are somewhat small but are designed well so you don't feel the lack of space.  In contrast with the room, the bathroom was quite large with a nice soaking tub if you want to take a bath.  The front desk staff was quite friendly and very helpful.  On the downside, the lighting in the room is so complicated that they have to explain it to you upon check-in (I assume they have received calls from guests wanting to turn the lights off before bed).  What I found more annoying was the curtains in the room - they go straight across but are about 4 inches from the window - thus there is a gap where people in the offices across the way can actually see into your room.  Not sure why they were done that way.  The location is great - right next to Union Station in an area that it up an coming.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph E, Manager at Kimpton Hotel Born, responded to this reviewResponded November 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2017</t>
+  </si>
+  <si>
+    <t>Let me start by saying that overall I really liked this hotel.  It has the feel of an upscale lodge with lots of light wood combined with some nice modern touches.  The rooms are somewhat small but are designed well so you don't feel the lack of space.  In contrast with the room, the bathroom was quite large with a nice soaking tub if you want to take a bath.  The front desk staff was quite friendly and very helpful.  On the downside, the lighting in the room is so complicated that they have to explain it to you upon check-in (I assume they have received calls from guests wanting to turn the lights off before bed).  What I found more annoying was the curtains in the room - they go straight across but are about 4 inches from the window - thus there is a gap where people in the offices across the way can actually see into your room.  Not sure why they were done that way.  The location is great - right next to Union Station in an area that it up an coming.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r536731387-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>536731387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contemporary and Classic - Mountains meet City </t>
+  </si>
+  <si>
+    <t>This newest addition to the Kimpton family is my new favorite place to stay.   Great location in the newly developed downtown Union Station area. Train station to DIA is out the front and costs $9.00!!!!  Do not let the Urban location deter you - once inside, you feel like you are in the mountains!   I swear, in the evenings they scent the hallways with that wonderful woodsmoke smell - Born is my new Denver destination!!!!!!  Make it yours, too.  MoreShow less</t>
+  </si>
+  <si>
+    <t>This newest addition to the Kimpton family is my new favorite place to stay.   Great location in the newly developed downtown Union Station area. Train station to DIA is out the front and costs $9.00!!!!  Do not let the Urban location deter you - once inside, you feel like you are in the mountains!   I swear, in the evenings they scent the hallways with that wonderful woodsmoke smell - Born is my new Denver destination!!!!!!  Make it yours, too.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r535913485-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>535913485</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>So much to say...</t>
+  </si>
+  <si>
+    <t>Wow, there were so many things we loved about our 3 night stay, but also some things we were completely disappointed in.  The hotel decor, location in the city, and desk staff were amazing.  Great happy hour, amazing shower!  We were in a room next to elevators, and could not hear any noise outside our room.  On the downside:  There is a master light switch that controls all the lights in the whole room, including the bathroom.  This became VERY inconvenient in the middle of night.  In that amazing shower, when you turn on the water, the water sprays directly at you, which meant all over me and the floor! We had ZERO cell phone service during this stay, which was aweful. When questioning the front desk, their only answer was that AT&amp;T had no cell towers in Denver (which is not true according to the AT&amp;T website).  I personally feel that the large concrete walls were a detriment to having cell service.  Upon check-in, we were immediately charged $100/day for "expected incidentals".  Unlike most hotels that just hold your card# on file in case, this hotel actually pre-charged our card prior to the stay.  This caused us some financial strain having to move money from another account to cover this $300 charge.  We wish that the staff would have been clear about this charge upon check-in, rather than we discover this 10 minutes later when the charges hit our...Wow, there were so many things we loved about our 3 night stay, but also some things we were completely disappointed in.  The hotel decor, location in the city, and desk staff were amazing.  Great happy hour, amazing shower!  We were in a room next to elevators, and could not hear any noise outside our room.  On the downside:  There is a master light switch that controls all the lights in the whole room, including the bathroom.  This became VERY inconvenient in the middle of night.  In that amazing shower, when you turn on the water, the water sprays directly at you, which meant all over me and the floor! We had ZERO cell phone service during this stay, which was aweful. When questioning the front desk, their only answer was that AT&amp;T had no cell towers in Denver (which is not true according to the AT&amp;T website).  I personally feel that the large concrete walls were a detriment to having cell service.  Upon check-in, we were immediately charged $100/day for "expected incidentals".  Unlike most hotels that just hold your card# on file in case, this hotel actually pre-charged our card prior to the stay.  This caused us some financial strain having to move money from another account to cover this $300 charge.  We wish that the staff would have been clear about this charge upon check-in, rather than we discover this 10 minutes later when the charges hit our card.  However, the largest issue we had was with the maid staff NOT cleaning our room.  The only thing done was the bed made and the towels replaced.  Left dirty cups and coffee mugs in the room for 2 days, did not clean out sink or toilet, did not put away iron or replace shampoo or lotion containers that were near empty.  Did not empty the garbage or replace toilet paper that was dangerously low!  We expected more for the money we spent to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wow, there were so many things we loved about our 3 night stay, but also some things we were completely disappointed in.  The hotel decor, location in the city, and desk staff were amazing.  Great happy hour, amazing shower!  We were in a room next to elevators, and could not hear any noise outside our room.  On the downside:  There is a master light switch that controls all the lights in the whole room, including the bathroom.  This became VERY inconvenient in the middle of night.  In that amazing shower, when you turn on the water, the water sprays directly at you, which meant all over me and the floor! We had ZERO cell phone service during this stay, which was aweful. When questioning the front desk, their only answer was that AT&amp;T had no cell towers in Denver (which is not true according to the AT&amp;T website).  I personally feel that the large concrete walls were a detriment to having cell service.  Upon check-in, we were immediately charged $100/day for "expected incidentals".  Unlike most hotels that just hold your card# on file in case, this hotel actually pre-charged our card prior to the stay.  This caused us some financial strain having to move money from another account to cover this $300 charge.  We wish that the staff would have been clear about this charge upon check-in, rather than we discover this 10 minutes later when the charges hit our...Wow, there were so many things we loved about our 3 night stay, but also some things we were completely disappointed in.  The hotel decor, location in the city, and desk staff were amazing.  Great happy hour, amazing shower!  We were in a room next to elevators, and could not hear any noise outside our room.  On the downside:  There is a master light switch that controls all the lights in the whole room, including the bathroom.  This became VERY inconvenient in the middle of night.  In that amazing shower, when you turn on the water, the water sprays directly at you, which meant all over me and the floor! We had ZERO cell phone service during this stay, which was aweful. When questioning the front desk, their only answer was that AT&amp;T had no cell towers in Denver (which is not true according to the AT&amp;T website).  I personally feel that the large concrete walls were a detriment to having cell service.  Upon check-in, we were immediately charged $100/day for "expected incidentals".  Unlike most hotels that just hold your card# on file in case, this hotel actually pre-charged our card prior to the stay.  This caused us some financial strain having to move money from another account to cover this $300 charge.  We wish that the staff would have been clear about this charge upon check-in, rather than we discover this 10 minutes later when the charges hit our card.  However, the largest issue we had was with the maid staff NOT cleaning our room.  The only thing done was the bed made and the towels replaced.  Left dirty cups and coffee mugs in the room for 2 days, did not clean out sink or toilet, did not put away iron or replace shampoo or lotion containers that were near empty.  Did not empty the garbage or replace toilet paper that was dangerously low!  We expected more for the money we spent to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r535771712-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>535771712</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Best hotel, ever?!</t>
+  </si>
+  <si>
+    <t>My partner and I stayed here for our last two nights in Denver. Upon check in we were in love with the modern decor. The staff were unbelievably friendly and welcoming. The room was beautiful and clean. There was a fridge, safe, closet with hangers, hairdryer, and large bottles of shampoo/conditioner. Also they had a whole list of things they would lend you if needed such as a phone charger. They have a happy hour with free wine/beers from 5-6pm. Very quiet hotel too, no street noise audible on the 6th floor. I would highly recommend this hotel! There isn't one negative thing I can say about it. What a great experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>My partner and I stayed here for our last two nights in Denver. Upon check in we were in love with the modern decor. The staff were unbelievably friendly and welcoming. The room was beautiful and clean. There was a fridge, safe, closet with hangers, hairdryer, and large bottles of shampoo/conditioner. Also they had a whole list of things they would lend you if needed such as a phone charger. They have a happy hour with free wine/beers from 5-6pm. Very quiet hotel too, no street noise audible on the 6th floor. I would highly recommend this hotel! There isn't one negative thing I can say about it. What a great experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r535470107-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>535470107</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Beautiful &amp; Lovely....</t>
+  </si>
+  <si>
+    <t>The new Kimpton Hotel Born is so lovely and nestled right in Downtown Denver.  The rooms were impeccably decorated and every last thing was thought of, as usual.  The corner room had plenty of space and gave us great views and, as always, the bathroom and tub were fabulous.Room service is always on par with Kimpton and the food was amazing. Thanks for the great stay and we look forward to our next stay with you.MoreShow less</t>
+  </si>
+  <si>
+    <t>The new Kimpton Hotel Born is so lovely and nestled right in Downtown Denver.  The rooms were impeccably decorated and every last thing was thought of, as usual.  The corner room had plenty of space and gave us great views and, as always, the bathroom and tub were fabulous.Room service is always on par with Kimpton and the food was amazing. Thanks for the great stay and we look forward to our next stay with you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r533886871-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>533886871</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Perfect in every way</t>
+  </si>
+  <si>
+    <t>This hotel is so thoughtfully and beautifully designed.  It was still very new (2 months old) when we visited here for 4 days recently and we appreciated all of the very elegant design features and the warm and friendly service.  From the moment you arrive in the porte cochere (either by car or walking from the adjacent train station that connects right to the airport!), the staff really makes you feel welcome.  The lobby is extra comfortable, with several cozy nooks available to relax and enjoy the evening wine hour.  The fitness center is large, with great equipment for a complete workout.  Plus towels, water, fresh apples.  The guest rooms are superb, finished in a style that is rustic chic Western.  Furniture is all comfortable and mini bar is well stocked.  The bathroom is large with a great rain shower.  Wonderful toiletries.  I hope to return here very soon.  This hotel is outstanding in every way.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is so thoughtfully and beautifully designed.  It was still very new (2 months old) when we visited here for 4 days recently and we appreciated all of the very elegant design features and the warm and friendly service.  From the moment you arrive in the porte cochere (either by car or walking from the adjacent train station that connects right to the airport!), the staff really makes you feel welcome.  The lobby is extra comfortable, with several cozy nooks available to relax and enjoy the evening wine hour.  The fitness center is large, with great equipment for a complete workout.  Plus towels, water, fresh apples.  The guest rooms are superb, finished in a style that is rustic chic Western.  Furniture is all comfortable and mini bar is well stocked.  The bathroom is large with a great rain shower.  Wonderful toiletries.  I hope to return here very soon.  This hotel is outstanding in every way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r533267758-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>533267758</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Very cool !</t>
+  </si>
+  <si>
+    <t>We loved our stay at the brand new Kimpton Hotel Born !  One of the 'coolest' hotels we have stayed in, with interesting 'quirky' touches that make it a unique experience.  Loved the natural light wood in the rooms and hallways, and the textures and materials used in the total fit-out.  The rooms were a good size, with a separate lounge, good size bedroom, with a hidden walk into wardrobe area (complete with yoga mat), the bathroom was huge.  Useful having a small table and seating area.  Large windows overlooking the Union Station, very quiet.  Union Station is a great space to 'hang out' or eat at any of the cafe/restaurants. Also convenient is the Train service to the Airport, just steps from the hotel.  A nice touch was the glass of wine happy hour at the end of the day - and always cold flavoured water and cups in the lobby during the day.  Highly recommend, would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We loved our stay at the brand new Kimpton Hotel Born !  One of the 'coolest' hotels we have stayed in, with interesting 'quirky' touches that make it a unique experience.  Loved the natural light wood in the rooms and hallways, and the textures and materials used in the total fit-out.  The rooms were a good size, with a separate lounge, good size bedroom, with a hidden walk into wardrobe area (complete with yoga mat), the bathroom was huge.  Useful having a small table and seating area.  Large windows overlooking the Union Station, very quiet.  Union Station is a great space to 'hang out' or eat at any of the cafe/restaurants. Also convenient is the Train service to the Airport, just steps from the hotel.  A nice touch was the glass of wine happy hour at the end of the day - and always cold flavoured water and cups in the lobby during the day.  Highly recommend, would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r532737198-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532737198</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Luxurious!</t>
+  </si>
+  <si>
+    <t>Stayed here one night!  Very comfortable and very clean.  Staff was very friendly and answered questions I had about dining choices. A great location next to Union Station  I will stay here on my next trip to Denver!MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph E, Manager at Kimpton Hotel Born, responded to this reviewResponded November 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here one night!  Very comfortable and very clean.  Staff was very friendly and answered questions I had about dining choices. A great location next to Union Station  I will stay here on my next trip to Denver!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r531796166-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>531796166</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic new Kimpton property </t>
+  </si>
+  <si>
+    <t>Stayed here for one night on business in one of the King Spa rooms. It's a really beautiful property, very convenient to Union Station. The rooms are well appointed in the typical Kimpton luxe way. I'll certainly be back next time I'm in Denver. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for one night on business in one of the King Spa rooms. It's a really beautiful property, very convenient to Union Station. The rooms are well appointed in the typical Kimpton luxe way. I'll certainly be back next time I'm in Denver. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r530787617-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>530787617</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Contemporary Rustic Luxury in the Heart of the City</t>
+  </si>
+  <si>
+    <t>We have been Kimpton fans for many years and have stayed in the sister hotel down the street.  So, when we got a chance to spend the night in this new hotel, we jumped on it.  The location is great - adjacent to Union Station.  The decor is both contemporary and rustic with blond wood trim, concrete, glass, etc.  The rooms are well designed and quiet.  There are plenty of plugs for your electronics, a gorgeous bathroom, and very comfortable beds.  And, they have a great bar/restaurant.  This will be our new, go-to hotel in Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have been Kimpton fans for many years and have stayed in the sister hotel down the street.  So, when we got a chance to spend the night in this new hotel, we jumped on it.  The location is great - adjacent to Union Station.  The decor is both contemporary and rustic with blond wood trim, concrete, glass, etc.  The rooms are well designed and quiet.  There are plenty of plugs for your electronics, a gorgeous bathroom, and very comfortable beds.  And, they have a great bar/restaurant.  This will be our new, go-to hotel in Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r530548391-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>530548391</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel Near Coors Field</t>
+  </si>
+  <si>
+    <t>My wife and I booked the Hotel Born before the hotel opened for business due to its proximity to Coors Field and the various tours we were taking while visiting Denver for the first time. And we couldn't have been happier with the hotel. Our room was spacious with very comfortable beds, the bathroom was huge, and we never heard any outside noise even though our room looked out onto Union Station.  We really enjoyed the free coffee in the lobby and the wine reception each night, and the hotel staff was very helpful. If you like to eat (and who doesn't), there are many excellent dining options very close to the hotel.  We will definitely stay at the Hotel Born next time we're in Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I booked the Hotel Born before the hotel opened for business due to its proximity to Coors Field and the various tours we were taking while visiting Denver for the first time. And we couldn't have been happier with the hotel. Our room was spacious with very comfortable beds, the bathroom was huge, and we never heard any outside noise even though our room looked out onto Union Station.  We really enjoyed the free coffee in the lobby and the wine reception each night, and the hotel staff was very helpful. If you like to eat (and who doesn't), there are many excellent dining options very close to the hotel.  We will definitely stay at the Hotel Born next time we're in Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r528282335-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>528282335</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Gorgeous!</t>
+  </si>
+  <si>
+    <t>This brand-new hotel next to Union Station in Denver is an excellent option.  It is just steps away from transit and the renovated Union Station which has several restaurants and a huge and comfortable common area full of people quietly chatting, working remotely, relaxing, and people watching.  But back to the Hotel Born...the staff is welcoming, the several common areas are very comfortable and spacious, the rooms are outstanding, the interior design is modern yet warm.  Especially liked the knotty pine doors and trim in the hallways. And, probably silly to comment on, but the elevators were also notable.  We also had a delicious breakfast in the restaurant downstairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph E, General Manager at Kimpton Hotel Born, responded to this reviewResponded September 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2017</t>
+  </si>
+  <si>
+    <t>This brand-new hotel next to Union Station in Denver is an excellent option.  It is just steps away from transit and the renovated Union Station which has several restaurants and a huge and comfortable common area full of people quietly chatting, working remotely, relaxing, and people watching.  But back to the Hotel Born...the staff is welcoming, the several common areas are very comfortable and spacious, the rooms are outstanding, the interior design is modern yet warm.  Especially liked the knotty pine doors and trim in the hallways. And, probably silly to comment on, but the elevators were also notable.  We also had a delicious breakfast in the restaurant downstairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r527853863-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>527853863</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Book this Hotel!!!</t>
+  </si>
+  <si>
+    <t>We recently traveled to Denver for our 11th Wedding Anniversary and couldn't decide between Hotel Born and The Art so we stayed at both.  I think my favorite experience was Hotel Born for a few reasons, one being the location-it was amazing!  The other reason was the feel and look of the rooms and bathroom...we just loved it!  We will be coming back to Denver and this will be our hotel of choice. We loved being able to bop over to Union Station and all it's shops as well as eating breakfast at Snooze.  We were also pleasantly surprised with how nice the 16th street mall and all of its offerings were. We enjoyed exploring this part of town.  We were in town for a concert at Red Rocks and the drive from the hotel was no problem.  This hotel really does a great job with the details - the mini bar choices were great!  Gummy bears and chocolate chip cookies?!?!?  My husband left his phone charger at home and the front desk generously brought one up for us to use.  One frustration was with our room taking pretty long to get ready but we did arrive way before check-in so I can understand that and it won't deter me from coming back. This hotel really did make our trip extra memorable!MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently traveled to Denver for our 11th Wedding Anniversary and couldn't decide between Hotel Born and The Art so we stayed at both.  I think my favorite experience was Hotel Born for a few reasons, one being the location-it was amazing!  The other reason was the feel and look of the rooms and bathroom...we just loved it!  We will be coming back to Denver and this will be our hotel of choice. We loved being able to bop over to Union Station and all it's shops as well as eating breakfast at Snooze.  We were also pleasantly surprised with how nice the 16th street mall and all of its offerings were. We enjoyed exploring this part of town.  We were in town for a concert at Red Rocks and the drive from the hotel was no problem.  This hotel really does a great job with the details - the mini bar choices were great!  Gummy bears and chocolate chip cookies?!?!?  My husband left his phone charger at home and the front desk generously brought one up for us to use.  One frustration was with our room taking pretty long to get ready but we did arrive way before check-in so I can understand that and it won't deter me from coming back. This hotel really did make our trip extra memorable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r527300224-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>527300224</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good option </t>
+  </si>
+  <si>
+    <t>Nice new hotel and a good option for the area.  Cool design features.  Public areas lacked a little life, but they were well executed.  Restaurant is a good option.Rooms a little dark but well appointed.  The bathrooms are very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice new hotel and a good option for the area.  Cool design features.  Public areas lacked a little life, but they were well executed.  Restaurant is a good option.Rooms a little dark but well appointed.  The bathrooms are very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r523442226-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>523442226</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Stay</t>
+  </si>
+  <si>
+    <t>I love the Kimpton line of hotels and was excited to try this brand new one in a great location ( LoDo). The hotel was a bit simpler than other Kimpton's I've stayed in, but nonetheless had the same great qualities: excellent customer service, clean, modern rooms, a great bathroom and the complimentary afternoon happy hour. A nice touch was offering some local craft beers in addition to the 2 wines. The location was excellent- literally around the block from Union Station and within 1-2 blocks of a bunch of great restaurants (try the Kitchen) and my favorite Denver bookstore, The Tattered Cover. Only stayed 1 night but I'd definitely recommend this hotel for a weekend or longer.MoreShow less</t>
+  </si>
+  <si>
+    <t>I love the Kimpton line of hotels and was excited to try this brand new one in a great location ( LoDo). The hotel was a bit simpler than other Kimpton's I've stayed in, but nonetheless had the same great qualities: excellent customer service, clean, modern rooms, a great bathroom and the complimentary afternoon happy hour. A nice touch was offering some local craft beers in addition to the 2 wines. The location was excellent- literally around the block from Union Station and within 1-2 blocks of a bunch of great restaurants (try the Kitchen) and my favorite Denver bookstore, The Tattered Cover. Only stayed 1 night but I'd definitely recommend this hotel for a weekend or longer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r522382079-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>522382079</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Anniversary Surprise</t>
+  </si>
+  <si>
+    <t>My husband surprised me for our 34th anniversary and booked an overnight at the Hotel Born-just five days after they opened! We were met with great customer service, a handwritten congratulatory note and bottle of champagne in our upgraded room. The amenities, décor and amazing soaking tub added to the ambience of a memorable weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband surprised me for our 34th anniversary and booked an overnight at the Hotel Born-just five days after they opened! We were met with great customer service, a handwritten congratulatory note and bottle of champagne in our upgraded room. The amenities, décor and amazing soaking tub added to the ambience of a memorable weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r522079560-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>522079560</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Simply Wonderful</t>
+  </si>
+  <si>
+    <t>Everything was great! I loved the feel of a new modern look they had! My Room was amazing! The view from my room was awesome I could see a lot of down town I really enjoyed myself. I brought 2 dogs with me and as soon as I walked in the door they were given so much attention! And treats they certainly adored the attention! I Decided to order room service because i was so tired and was leaving to early in the morning. I ordered the swordfish and apple crumble! Oh it was amazing! The the lady who delivered my food i believe her name was philis, She was awesome! The valet was very friendly and helpful i left some things in my car after I checked in and they were very helpful is getting what I needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was great! I loved the feel of a new modern look they had! My Room was amazing! The view from my room was awesome I could see a lot of down town I really enjoyed myself. I brought 2 dogs with me and as soon as I walked in the door they were given so much attention! And treats they certainly adored the attention! I Decided to order room service because i was so tired and was leaving to early in the morning. I ordered the swordfish and apple crumble! Oh it was amazing! The the lady who delivered my food i believe her name was philis, She was awesome! The valet was very friendly and helpful i left some things in my car after I checked in and they were very helpful is getting what I needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r518987946-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>518987946</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>My wife's 69th birthday trip</t>
+  </si>
+  <si>
+    <t>Everything about our stay at the Born was perfect. We took the train from the airport to Union Station, and walked about a 100 ft  to the hotel, it's right next door.  We walked up to the front desk and was greeted by Kyle who was very gracious and helpful. He said our room was ready, and wished my wife a Happy Birthday. When we walked into our room there was a bottle of Champagne waiting. We loved the room decor, and a great view of Union Station.  We had my wife's birthday dinner at the Citizen Rail Restaurant at the Hotel, and had a great meal, but the real deal were the people, everyone came up to wish my wife a Happy Birthday including the owner/chef.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph E, General Manager at Kimpton Hotel Born, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Everything about our stay at the Born was perfect. We took the train from the airport to Union Station, and walked about a 100 ft  to the hotel, it's right next door.  We walked up to the front desk and was greeted by Kyle who was very gracious and helpful. He said our room was ready, and wished my wife a Happy Birthday. When we walked into our room there was a bottle of Champagne waiting. We loved the room decor, and a great view of Union Station.  We had my wife's birthday dinner at the Citizen Rail Restaurant at the Hotel, and had a great meal, but the real deal were the people, everyone came up to wish my wife a Happy Birthday including the owner/chef.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r518953855-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>518953855</t>
+  </si>
+  <si>
+    <t>I'm just back from three nights at the Kimpton Born Denver.  This was one of my best hotel experiences ever.  The hotel is beautiful, and the hotel staff is wonderful - very friendly and professional.  The location is perfect -- easy walking distance to Coors field and the Pepsi Center - even Mile Hike Stadium is a doable walk, as is much of downtown and areas such as Larimer Square.I am a Kimpton Karma member, and had a Kimpton upgrade reward outstanding, and asked if an upgrade was possible at checkin.  We were given not just a simple upgrade, but a beautiful 2 room suite.  When we got to the suite, there was a bottle of wine and a birthday card for me.  I didn't even mention it was my birthday - they must have made note of it on my drivers license.  Nice touch!!  I did have an issue with the Valet Parking service, which might have caused me to give one less star in my review, but the hotel handled this so professionally that I have to give them kudos and a full 5 stars.  When I next return to Denver, I will no doubt look to stay at the Kimpton Born first!MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm just back from three nights at the Kimpton Born Denver.  This was one of my best hotel experiences ever.  The hotel is beautiful, and the hotel staff is wonderful - very friendly and professional.  The location is perfect -- easy walking distance to Coors field and the Pepsi Center - even Mile Hike Stadium is a doable walk, as is much of downtown and areas such as Larimer Square.I am a Kimpton Karma member, and had a Kimpton upgrade reward outstanding, and asked if an upgrade was possible at checkin.  We were given not just a simple upgrade, but a beautiful 2 room suite.  When we got to the suite, there was a bottle of wine and a birthday card for me.  I didn't even mention it was my birthday - they must have made note of it on my drivers license.  Nice touch!!  I did have an issue with the Valet Parking service, which might have caused me to give one less star in my review, but the hotel handled this so professionally that I have to give them kudos and a full 5 stars.  When I next return to Denver, I will no doubt look to stay at the Kimpton Born first!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r518538751-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>518538751</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Nice on the surface</t>
+  </si>
+  <si>
+    <t>The hotel is brand new and still smells of freshly stained wood. It's a real looker. Lots of attention was paid to details.Unfortunately, they overlooked a huge detail: shower drainage. All of the shower stall floors are flat and have a drain in between the wall and floor tile. Without any pitch, this fills up rather quickly and gives you that disgusting sensation of having tepid water up to your ankles. I complained to the front desk, but was told every shower was the same. They should have used teak floor over pitched tile with the drain lowered about 6-12 inches at the end of the pitch.Customer service was only okay. Communication and professionalism was lacking, but this is a "hip" hotel and maybe they're just trying to put out a more casual vibe?I wouldn't stay again unless the shower situation is dealt with.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is brand new and still smells of freshly stained wood. It's a real looker. Lots of attention was paid to details.Unfortunately, they overlooked a huge detail: shower drainage. All of the shower stall floors are flat and have a drain in between the wall and floor tile. Without any pitch, this fills up rather quickly and gives you that disgusting sensation of having tepid water up to your ankles. I complained to the front desk, but was told every shower was the same. They should have used teak floor over pitched tile with the drain lowered about 6-12 inches at the end of the pitch.Customer service was only okay. Communication and professionalism was lacking, but this is a "hip" hotel and maybe they're just trying to put out a more casual vibe?I wouldn't stay again unless the shower situation is dealt with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r517850920-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>517850920</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>Perfect on every level</t>
+  </si>
+  <si>
+    <t>Kimpton hotels have always been synonymous with luxury and customer satisfaction. This new property is everything I expected it to be. The moment we pulled up to the front door we were taken care of. Every single employee was kind and gracious. There was nothing that they did not provide for us. They even treated our little dog like royalty!The on site restaurant and bar, Citizen Rail, is amazing. The bartenders were very eager to answer our questions and help us navigate the bar menu. We then ate dinner at the restaurant counter so we could watch the chefs at work. It was so much fun interacting with them during our incredible meal. The bone in ribeye was tender and well aged. The duck fat fried potatoes are addictive. So crispy on the outside and fluffy on the inside. It was an amazing experience. Kudos to every single employee who made our stay so memorable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph E, General Manager at Kimpton Hotel Born, responded to this reviewResponded September 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2017</t>
+  </si>
+  <si>
+    <t>Kimpton hotels have always been synonymous with luxury and customer satisfaction. This new property is everything I expected it to be. The moment we pulled up to the front door we were taken care of. Every single employee was kind and gracious. There was nothing that they did not provide for us. They even treated our little dog like royalty!The on site restaurant and bar, Citizen Rail, is amazing. The bartenders were very eager to answer our questions and help us navigate the bar menu. We then ate dinner at the restaurant counter so we could watch the chefs at work. It was so much fun interacting with them during our incredible meal. The bone in ribeye was tender and well aged. The duck fat fried potatoes are addictive. So crispy on the outside and fluffy on the inside. It was an amazing experience. Kudos to every single employee who made our stay so memorable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r517221156-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>517221156</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>My wife and I just arrived in Denver this morning. We were early (as in 11am). They were great and made sure we could get in to a room. The entire staff has been incredible. Everyone is very helpful and cheerful. They have a complimentary happy hour in the lobby every afternoon from 5-6. The rooms are fantastic-- new and modern. The location is great as well. I HIGHLY recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I just arrived in Denver this morning. We were early (as in 11am). They were great and made sure we could get in to a room. The entire staff has been incredible. Everyone is very helpful and cheerful. They have a complimentary happy hour in the lobby every afternoon from 5-6. The rooms are fantastic-- new and modern. The location is great as well. I HIGHLY recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d11894133-r516886747-Kimpton_Hotel_Born-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>516886747</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Beware of Parking and Facility Fees</t>
+  </si>
+  <si>
+    <t>Brand new, super nice and modern. However, imagine my shock at being charged $48 to park my car overnight, and a mysterious facility charge of $20. The parking was unavoidable, but what exactly is a facility charge? Disappointing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand new, super nice and modern. However, imagine my shock at being charged $48 to park my car overnight, and a mysterious facility charge of $20. The parking was unavoidable, but what exactly is a facility charge? Disappointing.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2543,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2575,6459 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>66</v>
+      </c>
+      <c r="X7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>66</v>
+      </c>
+      <c r="X8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>100</v>
+      </c>
+      <c r="X10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>100</v>
+      </c>
+      <c r="X11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>93</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>120</v>
+      </c>
+      <c r="X13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>120</v>
+      </c>
+      <c r="X14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>140</v>
+      </c>
+      <c r="X16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>140</v>
+      </c>
+      <c r="X17" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>140</v>
+      </c>
+      <c r="X18" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>93</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>140</v>
+      </c>
+      <c r="X19" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>172</v>
+      </c>
+      <c r="X20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>93</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>172</v>
+      </c>
+      <c r="X21" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>172</v>
+      </c>
+      <c r="X22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>154</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>192</v>
+      </c>
+      <c r="X23" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>154</v>
+      </c>
+      <c r="O24" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>192</v>
+      </c>
+      <c r="X24" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>154</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>192</v>
+      </c>
+      <c r="X25" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>154</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>211</v>
+      </c>
+      <c r="X26" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>215</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s">
+        <v>217</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>185</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>211</v>
+      </c>
+      <c r="X27" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" t="s">
+        <v>222</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>154</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>185</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>229</v>
+      </c>
+      <c r="X29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>154</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>229</v>
+      </c>
+      <c r="X30" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" t="s">
+        <v>240</v>
+      </c>
+      <c r="L31" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>229</v>
+      </c>
+      <c r="X31" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" t="s">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s">
+        <v>247</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>185</v>
+      </c>
+      <c r="O32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>248</v>
+      </c>
+      <c r="X32" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>252</v>
+      </c>
+      <c r="J33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K33" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" t="s">
+        <v>255</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>185</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>248</v>
+      </c>
+      <c r="X33" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>258</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>259</v>
+      </c>
+      <c r="L34" t="s">
+        <v>260</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>59</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>261</v>
+      </c>
+      <c r="X34" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>265</v>
+      </c>
+      <c r="J35" t="s">
+        <v>266</v>
+      </c>
+      <c r="K35" t="s">
+        <v>267</v>
+      </c>
+      <c r="L35" t="s">
+        <v>268</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>185</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>269</v>
+      </c>
+      <c r="X35" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>273</v>
+      </c>
+      <c r="J36" t="s">
+        <v>274</v>
+      </c>
+      <c r="K36" t="s">
+        <v>275</v>
+      </c>
+      <c r="L36" t="s">
+        <v>276</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>59</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>277</v>
+      </c>
+      <c r="X36" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>280</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>281</v>
+      </c>
+      <c r="J37" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" t="s">
+        <v>282</v>
+      </c>
+      <c r="L37" t="s">
+        <v>283</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>185</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>277</v>
+      </c>
+      <c r="X37" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" t="s">
+        <v>287</v>
+      </c>
+      <c r="K38" t="s">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>185</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>290</v>
+      </c>
+      <c r="X38" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>294</v>
+      </c>
+      <c r="J39" t="s">
+        <v>287</v>
+      </c>
+      <c r="K39" t="s">
+        <v>295</v>
+      </c>
+      <c r="L39" t="s">
+        <v>296</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>185</v>
+      </c>
+      <c r="O39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>290</v>
+      </c>
+      <c r="X39" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>299</v>
+      </c>
+      <c r="J40" t="s">
+        <v>300</v>
+      </c>
+      <c r="K40" t="s">
+        <v>301</v>
+      </c>
+      <c r="L40" t="s">
+        <v>302</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>185</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>303</v>
+      </c>
+      <c r="X40" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>307</v>
+      </c>
+      <c r="J41" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s">
+        <v>310</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>185</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>311</v>
+      </c>
+      <c r="X41" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>315</v>
+      </c>
+      <c r="J42" t="s">
+        <v>308</v>
+      </c>
+      <c r="K42" t="s">
+        <v>316</v>
+      </c>
+      <c r="L42" t="s">
+        <v>317</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>59</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>311</v>
+      </c>
+      <c r="X42" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>319</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>320</v>
+      </c>
+      <c r="J43" t="s">
+        <v>321</v>
+      </c>
+      <c r="K43" t="s">
+        <v>322</v>
+      </c>
+      <c r="L43" t="s">
+        <v>323</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>324</v>
+      </c>
+      <c r="O43" t="s">
+        <v>325</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>326</v>
+      </c>
+      <c r="X43" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>330</v>
+      </c>
+      <c r="J44" t="s">
+        <v>331</v>
+      </c>
+      <c r="K44" t="s">
+        <v>332</v>
+      </c>
+      <c r="L44" t="s">
+        <v>333</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>59</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>334</v>
+      </c>
+      <c r="X44" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>337</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>338</v>
+      </c>
+      <c r="J45" t="s">
+        <v>339</v>
+      </c>
+      <c r="K45" t="s">
+        <v>340</v>
+      </c>
+      <c r="L45" t="s">
+        <v>341</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>59</v>
+      </c>
+      <c r="O45" t="s">
+        <v>79</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>334</v>
+      </c>
+      <c r="X45" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>343</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>344</v>
+      </c>
+      <c r="J46" t="s">
+        <v>345</v>
+      </c>
+      <c r="K46" t="s">
+        <v>346</v>
+      </c>
+      <c r="L46" t="s">
+        <v>347</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>59</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>348</v>
+      </c>
+      <c r="X46" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>351</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>352</v>
+      </c>
+      <c r="J47" t="s">
+        <v>353</v>
+      </c>
+      <c r="K47" t="s">
+        <v>354</v>
+      </c>
+      <c r="L47" t="s">
+        <v>355</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>59</v>
+      </c>
+      <c r="O47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>348</v>
+      </c>
+      <c r="X47" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>358</v>
+      </c>
+      <c r="J48" t="s">
+        <v>359</v>
+      </c>
+      <c r="K48" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>59</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>348</v>
+      </c>
+      <c r="X48" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>363</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>364</v>
+      </c>
+      <c r="J49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s">
+        <v>367</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>59</v>
+      </c>
+      <c r="O49" t="s">
+        <v>325</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>348</v>
+      </c>
+      <c r="X49" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>369</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>370</v>
+      </c>
+      <c r="J50" t="s">
+        <v>371</v>
+      </c>
+      <c r="K50" t="s">
+        <v>372</v>
+      </c>
+      <c r="L50" t="s">
+        <v>373</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>59</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>348</v>
+      </c>
+      <c r="X50" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>375</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>376</v>
+      </c>
+      <c r="J51" t="s">
+        <v>377</v>
+      </c>
+      <c r="K51" t="s">
+        <v>378</v>
+      </c>
+      <c r="L51" t="s">
+        <v>379</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>380</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>348</v>
+      </c>
+      <c r="X51" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>382</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" t="s">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s">
+        <v>385</v>
+      </c>
+      <c r="L52" t="s">
+        <v>386</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>59</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>348</v>
+      </c>
+      <c r="X52" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>388</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>389</v>
+      </c>
+      <c r="J53" t="s">
+        <v>390</v>
+      </c>
+      <c r="K53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L53" t="s">
+        <v>392</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>380</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>394</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>395</v>
+      </c>
+      <c r="J54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K54" t="s">
+        <v>397</v>
+      </c>
+      <c r="L54" t="s">
+        <v>398</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>399</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>400</v>
+      </c>
+      <c r="J55" t="s">
+        <v>396</v>
+      </c>
+      <c r="K55" t="s">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s">
+        <v>402</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>380</v>
+      </c>
+      <c r="O55" t="s">
+        <v>79</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>404</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>405</v>
+      </c>
+      <c r="J56" t="s">
+        <v>406</v>
+      </c>
+      <c r="K56" t="s">
+        <v>407</v>
+      </c>
+      <c r="L56" t="s">
+        <v>408</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>410</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>411</v>
+      </c>
+      <c r="J57" t="s">
+        <v>406</v>
+      </c>
+      <c r="K57" t="s">
+        <v>412</v>
+      </c>
+      <c r="L57" t="s">
+        <v>413</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>380</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>415</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>416</v>
+      </c>
+      <c r="J58" t="s">
+        <v>417</v>
+      </c>
+      <c r="K58" t="s">
+        <v>132</v>
+      </c>
+      <c r="L58" t="s">
+        <v>418</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>419</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>421</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>422</v>
+      </c>
+      <c r="J59" t="s">
+        <v>423</v>
+      </c>
+      <c r="K59" t="s">
+        <v>424</v>
+      </c>
+      <c r="L59" t="s">
+        <v>425</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>419</v>
+      </c>
+      <c r="O59" t="s">
+        <v>79</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>426</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>427</v>
+      </c>
+      <c r="J60" t="s">
+        <v>428</v>
+      </c>
+      <c r="K60" t="s">
+        <v>429</v>
+      </c>
+      <c r="L60" t="s">
+        <v>430</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>419</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>431</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>432</v>
+      </c>
+      <c r="J61" t="s">
+        <v>433</v>
+      </c>
+      <c r="K61" t="s">
+        <v>434</v>
+      </c>
+      <c r="L61" t="s">
+        <v>435</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>419</v>
+      </c>
+      <c r="O61" t="s">
+        <v>79</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>436</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>437</v>
+      </c>
+      <c r="J62" t="s">
+        <v>438</v>
+      </c>
+      <c r="K62" t="s">
+        <v>439</v>
+      </c>
+      <c r="L62" t="s">
+        <v>440</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>441</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>443</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>444</v>
+      </c>
+      <c r="J63" t="s">
+        <v>445</v>
+      </c>
+      <c r="K63" t="s">
+        <v>446</v>
+      </c>
+      <c r="L63" t="s">
+        <v>447</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>448</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>451</v>
+      </c>
+      <c r="J64" t="s">
+        <v>452</v>
+      </c>
+      <c r="K64" t="s">
+        <v>453</v>
+      </c>
+      <c r="L64" t="s">
+        <v>454</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>419</v>
+      </c>
+      <c r="O64" t="s">
+        <v>79</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>456</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>457</v>
+      </c>
+      <c r="J65" t="s">
+        <v>458</v>
+      </c>
+      <c r="K65" t="s">
+        <v>459</v>
+      </c>
+      <c r="L65" t="s">
+        <v>460</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>441</v>
+      </c>
+      <c r="O65" t="s">
+        <v>79</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>462</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>463</v>
+      </c>
+      <c r="J66" t="s">
+        <v>464</v>
+      </c>
+      <c r="K66" t="s">
+        <v>465</v>
+      </c>
+      <c r="L66" t="s">
+        <v>466</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>441</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>468</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>469</v>
+      </c>
+      <c r="J67" t="s">
+        <v>470</v>
+      </c>
+      <c r="K67" t="s">
+        <v>471</v>
+      </c>
+      <c r="L67" t="s">
+        <v>472</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>441</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>473</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>474</v>
+      </c>
+      <c r="J68" t="s">
+        <v>475</v>
+      </c>
+      <c r="K68" t="s">
+        <v>476</v>
+      </c>
+      <c r="L68" t="s">
+        <v>477</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>441</v>
+      </c>
+      <c r="O68" t="s">
+        <v>79</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>479</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>480</v>
+      </c>
+      <c r="J69" t="s">
+        <v>481</v>
+      </c>
+      <c r="K69" t="s">
+        <v>482</v>
+      </c>
+      <c r="L69" t="s">
+        <v>483</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>485</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>486</v>
+      </c>
+      <c r="J70" t="s">
+        <v>481</v>
+      </c>
+      <c r="K70" t="s">
+        <v>487</v>
+      </c>
+      <c r="L70" t="s">
+        <v>488</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>441</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>490</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>491</v>
+      </c>
+      <c r="J71" t="s">
+        <v>492</v>
+      </c>
+      <c r="K71" t="s">
+        <v>493</v>
+      </c>
+      <c r="L71" t="s">
+        <v>494</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>495</v>
+      </c>
+      <c r="O71" t="s">
+        <v>79</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>496</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>497</v>
+      </c>
+      <c r="J72" t="s">
+        <v>498</v>
+      </c>
+      <c r="K72" t="s">
+        <v>499</v>
+      </c>
+      <c r="L72" t="s">
+        <v>500</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>495</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>501</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>502</v>
+      </c>
+      <c r="J73" t="s">
+        <v>503</v>
+      </c>
+      <c r="K73" t="s">
+        <v>504</v>
+      </c>
+      <c r="L73" t="s">
+        <v>505</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>495</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>506</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>507</v>
+      </c>
+      <c r="J74" t="s">
+        <v>508</v>
+      </c>
+      <c r="K74" t="s">
+        <v>509</v>
+      </c>
+      <c r="L74" t="s">
+        <v>510</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>495</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>511</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>512</v>
+      </c>
+      <c r="J75" t="s">
+        <v>513</v>
+      </c>
+      <c r="K75" t="s">
+        <v>514</v>
+      </c>
+      <c r="L75" t="s">
+        <v>515</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>324</v>
+      </c>
+      <c r="O75" t="s">
+        <v>79</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>516</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>517</v>
+      </c>
+      <c r="J76" t="s">
+        <v>513</v>
+      </c>
+      <c r="K76" t="s">
+        <v>518</v>
+      </c>
+      <c r="L76" t="s">
+        <v>519</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>495</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>520</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>521</v>
+      </c>
+      <c r="J77" t="s">
+        <v>522</v>
+      </c>
+      <c r="K77" t="s">
+        <v>523</v>
+      </c>
+      <c r="L77" t="s">
+        <v>524</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>495</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>526</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>527</v>
+      </c>
+      <c r="J78" t="s">
+        <v>528</v>
+      </c>
+      <c r="K78" t="s">
+        <v>529</v>
+      </c>
+      <c r="L78" t="s">
+        <v>530</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>495</v>
+      </c>
+      <c r="O78" t="s">
+        <v>86</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>532</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>533</v>
+      </c>
+      <c r="J79" t="s">
+        <v>534</v>
+      </c>
+      <c r="K79" t="s">
+        <v>535</v>
+      </c>
+      <c r="L79" t="s">
+        <v>536</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>495</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>538</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>539</v>
+      </c>
+      <c r="J80" t="s">
+        <v>540</v>
+      </c>
+      <c r="K80" t="s">
+        <v>541</v>
+      </c>
+      <c r="L80" t="s">
+        <v>542</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>543</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>545</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>546</v>
+      </c>
+      <c r="J81" t="s">
+        <v>547</v>
+      </c>
+      <c r="K81" t="s">
+        <v>548</v>
+      </c>
+      <c r="L81" t="s">
+        <v>549</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>543</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>550</v>
+      </c>
+      <c r="X81" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>553</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>554</v>
+      </c>
+      <c r="J82" t="s">
+        <v>547</v>
+      </c>
+      <c r="K82" t="s">
+        <v>555</v>
+      </c>
+      <c r="L82" t="s">
+        <v>556</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>543</v>
+      </c>
+      <c r="O82" t="s">
+        <v>79</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>550</v>
+      </c>
+      <c r="X82" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>558</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>559</v>
+      </c>
+      <c r="J83" t="s">
+        <v>560</v>
+      </c>
+      <c r="K83" t="s">
+        <v>561</v>
+      </c>
+      <c r="L83" t="s">
+        <v>562</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>543</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>550</v>
+      </c>
+      <c r="X83" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>564</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>565</v>
+      </c>
+      <c r="J84" t="s">
+        <v>566</v>
+      </c>
+      <c r="K84" t="s">
+        <v>567</v>
+      </c>
+      <c r="L84" t="s">
+        <v>568</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>543</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>550</v>
+      </c>
+      <c r="X84" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>570</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>571</v>
+      </c>
+      <c r="J85" t="s">
+        <v>572</v>
+      </c>
+      <c r="K85" t="s">
+        <v>573</v>
+      </c>
+      <c r="L85" t="s">
+        <v>574</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>543</v>
+      </c>
+      <c r="O85" t="s">
+        <v>79</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>550</v>
+      </c>
+      <c r="X85" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>576</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>577</v>
+      </c>
+      <c r="J86" t="s">
+        <v>578</v>
+      </c>
+      <c r="K86" t="s">
+        <v>579</v>
+      </c>
+      <c r="L86" t="s">
+        <v>580</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>543</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>550</v>
+      </c>
+      <c r="X86" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>582</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>583</v>
+      </c>
+      <c r="J87" t="s">
+        <v>584</v>
+      </c>
+      <c r="K87" t="s">
+        <v>585</v>
+      </c>
+      <c r="L87" t="s">
+        <v>586</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>324</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>550</v>
+      </c>
+      <c r="X87" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>588</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>589</v>
+      </c>
+      <c r="J88" t="s">
+        <v>590</v>
+      </c>
+      <c r="K88" t="s">
+        <v>591</v>
+      </c>
+      <c r="L88" t="s">
+        <v>592</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>543</v>
+      </c>
+      <c r="O88" t="s">
+        <v>86</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>593</v>
+      </c>
+      <c r="X88" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>596</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>597</v>
+      </c>
+      <c r="J89" t="s">
+        <v>598</v>
+      </c>
+      <c r="K89" t="s">
+        <v>599</v>
+      </c>
+      <c r="L89" t="s">
+        <v>600</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>543</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>593</v>
+      </c>
+      <c r="X89" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>602</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>603</v>
+      </c>
+      <c r="J90" t="s">
+        <v>604</v>
+      </c>
+      <c r="K90" t="s">
+        <v>605</v>
+      </c>
+      <c r="L90" t="s">
+        <v>606</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>543</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>593</v>
+      </c>
+      <c r="X90" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>608</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>609</v>
+      </c>
+      <c r="J91" t="s">
+        <v>610</v>
+      </c>
+      <c r="K91" t="s">
+        <v>611</v>
+      </c>
+      <c r="L91" t="s">
+        <v>612</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>324</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>593</v>
+      </c>
+      <c r="X91" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>614</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>615</v>
+      </c>
+      <c r="J92" t="s">
+        <v>616</v>
+      </c>
+      <c r="K92" t="s">
+        <v>617</v>
+      </c>
+      <c r="L92" t="s">
+        <v>618</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>324</v>
+      </c>
+      <c r="O92" t="s">
+        <v>79</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>619</v>
+      </c>
+      <c r="X92" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>622</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>623</v>
+      </c>
+      <c r="J93" t="s">
+        <v>624</v>
+      </c>
+      <c r="K93" t="s">
+        <v>625</v>
+      </c>
+      <c r="L93" t="s">
+        <v>626</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>324</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>619</v>
+      </c>
+      <c r="X93" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>628</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>629</v>
+      </c>
+      <c r="J94" t="s">
+        <v>630</v>
+      </c>
+      <c r="K94" t="s">
+        <v>631</v>
+      </c>
+      <c r="L94" t="s">
+        <v>632</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>324</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>619</v>
+      </c>
+      <c r="X94" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>634</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>635</v>
+      </c>
+      <c r="J95" t="s">
+        <v>636</v>
+      </c>
+      <c r="K95" t="s">
+        <v>637</v>
+      </c>
+      <c r="L95" t="s">
+        <v>638</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>448</v>
+      </c>
+      <c r="O95" t="s">
+        <v>325</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>619</v>
+      </c>
+      <c r="X95" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>640</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>641</v>
+      </c>
+      <c r="J96" t="s">
+        <v>642</v>
+      </c>
+      <c r="K96" t="s">
+        <v>643</v>
+      </c>
+      <c r="L96" t="s">
+        <v>644</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>448</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>619</v>
+      </c>
+      <c r="X96" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>646</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>647</v>
+      </c>
+      <c r="J97" t="s">
+        <v>648</v>
+      </c>
+      <c r="K97" t="s">
+        <v>649</v>
+      </c>
+      <c r="L97" t="s">
+        <v>650</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>324</v>
+      </c>
+      <c r="O97" t="s">
+        <v>325</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>619</v>
+      </c>
+      <c r="X97" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>652</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>653</v>
+      </c>
+      <c r="J98" t="s">
+        <v>654</v>
+      </c>
+      <c r="K98" t="s">
+        <v>655</v>
+      </c>
+      <c r="L98" t="s">
+        <v>656</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>448</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>657</v>
+      </c>
+      <c r="X98" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>660</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>661</v>
+      </c>
+      <c r="J99" t="s">
+        <v>654</v>
+      </c>
+      <c r="K99" t="s">
+        <v>235</v>
+      </c>
+      <c r="L99" t="s">
+        <v>662</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>448</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>657</v>
+      </c>
+      <c r="X99" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>664</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>665</v>
+      </c>
+      <c r="J100" t="s">
+        <v>666</v>
+      </c>
+      <c r="K100" t="s">
+        <v>667</v>
+      </c>
+      <c r="L100" t="s">
+        <v>668</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>448</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>657</v>
+      </c>
+      <c r="X100" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>670</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>671</v>
+      </c>
+      <c r="J101" t="s">
+        <v>672</v>
+      </c>
+      <c r="K101" t="s">
+        <v>673</v>
+      </c>
+      <c r="L101" t="s">
+        <v>674</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>448</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>675</v>
+      </c>
+      <c r="X101" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>678</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>679</v>
+      </c>
+      <c r="J102" t="s">
+        <v>680</v>
+      </c>
+      <c r="K102" t="s">
+        <v>681</v>
+      </c>
+      <c r="L102" t="s">
+        <v>682</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>448</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>675</v>
+      </c>
+      <c r="X102" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>65690</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>684</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>685</v>
+      </c>
+      <c r="J103" t="s">
+        <v>686</v>
+      </c>
+      <c r="K103" t="s">
+        <v>687</v>
+      </c>
+      <c r="L103" t="s">
+        <v>688</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="s">
+        <v>448</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>675</v>
+      </c>
+      <c r="X103" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
